--- a/btc_data.xlsx
+++ b/btc_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E367"/>
+  <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6169 +463,7270 @@
           <t>volatility</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>market_cap_pct_change</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="B2" t="n">
-        <v>24179.0146523092</v>
+        <v>23913.33372562846</v>
       </c>
       <c r="C2" t="n">
-        <v>33404812507.80541</v>
+        <v>24971300201.36816</v>
       </c>
       <c r="D2" t="n">
-        <v>462437221425.1544</v>
+        <v>456791042838.0383</v>
       </c>
       <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="B3" t="n">
-        <v>23913.33372562846</v>
+        <v>23359.41883707001</v>
       </c>
       <c r="C3" t="n">
-        <v>24971300201.36816</v>
+        <v>29567403252.00121</v>
       </c>
       <c r="D3" t="n">
-        <v>456791042838.0383</v>
+        <v>447015816173.3428</v>
       </c>
       <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-2.139977746490407</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="B4" t="n">
-        <v>23359.41883707001</v>
+        <v>23248.38422819264</v>
       </c>
       <c r="C4" t="n">
-        <v>29567403252.00121</v>
+        <v>20228208349.15657</v>
       </c>
       <c r="D4" t="n">
-        <v>447015816173.3428</v>
+        <v>444845955425.387</v>
       </c>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-0.4854102851507114</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="B5" t="n">
-        <v>23248.38422819264</v>
+        <v>20945.8339660496</v>
       </c>
       <c r="C5" t="n">
-        <v>20228208349.15657</v>
+        <v>35142410593.12218</v>
       </c>
       <c r="D5" t="n">
-        <v>444845955425.387</v>
+        <v>400810425580.6478</v>
       </c>
       <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-9.899051414917315</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44793</v>
+        <v>44794</v>
       </c>
       <c r="B6" t="n">
-        <v>20945.8339660496</v>
+        <v>21175.23273298951</v>
       </c>
       <c r="C6" t="n">
-        <v>35142410593.12218</v>
+        <v>23809679190.92219</v>
       </c>
       <c r="D6" t="n">
-        <v>400810425580.6478</v>
+        <v>404924875533.8922</v>
       </c>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>1.026532667478364</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="B7" t="n">
-        <v>21175.23273298951</v>
+        <v>21615.76169341699</v>
       </c>
       <c r="C7" t="n">
-        <v>23809679190.92219</v>
+        <v>20476237108.35153</v>
       </c>
       <c r="D7" t="n">
-        <v>404924875533.8922</v>
+        <v>413578924865.8514</v>
       </c>
       <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>2.1371987385435</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="B8" t="n">
-        <v>21615.76169341699</v>
+        <v>21387.74711477396</v>
       </c>
       <c r="C8" t="n">
-        <v>20476237108.35153</v>
+        <v>28856912427.17574</v>
       </c>
       <c r="D8" t="n">
-        <v>413578924865.8514</v>
+        <v>408409110509.7958</v>
       </c>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-1.250018810250653</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B9" t="n">
-        <v>21387.74711477396</v>
+        <v>21562.45153991356</v>
       </c>
       <c r="C9" t="n">
-        <v>28856912427.17574</v>
+        <v>29331102121.79332</v>
       </c>
       <c r="D9" t="n">
-        <v>408409110509.7958</v>
+        <v>412338357271.3959</v>
       </c>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.9620859722486275</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="B10" t="n">
-        <v>21562.45153991356</v>
+        <v>21395.45846975991</v>
       </c>
       <c r="C10" t="n">
-        <v>29331102121.79332</v>
+        <v>26855905243.36116</v>
       </c>
       <c r="D10" t="n">
-        <v>412338357271.3959</v>
+        <v>409503007623.0168</v>
       </c>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-0.6876269448085615</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="B11" t="n">
-        <v>21395.45846975991</v>
+        <v>21618.00901917665</v>
       </c>
       <c r="C11" t="n">
-        <v>26855905243.36116</v>
+        <v>26767966536.31501</v>
       </c>
       <c r="D11" t="n">
-        <v>409503007623.0168</v>
+        <v>413843488595.5175</v>
       </c>
       <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>1.059938728581078</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44799</v>
+        <v>44800</v>
       </c>
       <c r="B12" t="n">
-        <v>21618.00901917665</v>
+        <v>20271.32295170601</v>
       </c>
       <c r="C12" t="n">
-        <v>26767966536.31501</v>
+        <v>34910727805.04114</v>
       </c>
       <c r="D12" t="n">
-        <v>413843488595.5175</v>
+        <v>387215087166.7839</v>
       </c>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-6.43441353133375</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44800</v>
+        <v>44801</v>
       </c>
       <c r="B13" t="n">
-        <v>20271.32295170601</v>
+        <v>20069.9533315962</v>
       </c>
       <c r="C13" t="n">
-        <v>34910727805.04114</v>
+        <v>24463219414.74347</v>
       </c>
       <c r="D13" t="n">
-        <v>387215087166.7839</v>
+        <v>383790676113.7921</v>
       </c>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>-0.8843692217800458</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44801</v>
+        <v>44802</v>
       </c>
       <c r="B14" t="n">
-        <v>20069.9533315962</v>
+        <v>19659.24670619362</v>
       </c>
       <c r="C14" t="n">
-        <v>24463219414.74347</v>
+        <v>19781826309.45118</v>
       </c>
       <c r="D14" t="n">
-        <v>383790676113.7921</v>
+        <v>376180531070.6233</v>
       </c>
       <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-1.982889506391339</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="B15" t="n">
-        <v>19659.24670619362</v>
+        <v>20308.86144789146</v>
       </c>
       <c r="C15" t="n">
-        <v>19781826309.45118</v>
+        <v>28706315246.14006</v>
       </c>
       <c r="D15" t="n">
-        <v>376180531070.6233</v>
+        <v>389119405471.2333</v>
       </c>
       <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>3.439538554476895</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B16" t="n">
-        <v>20308.86144789146</v>
+        <v>19805.35069885804</v>
       </c>
       <c r="C16" t="n">
-        <v>28706315246.14006</v>
+        <v>30308993725.45616</v>
       </c>
       <c r="D16" t="n">
-        <v>389119405471.2333</v>
+        <v>379555151404.602</v>
       </c>
       <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>-2.457922666449575</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B17" t="n">
-        <v>19805.35069885804</v>
+        <v>20023.55444491251</v>
       </c>
       <c r="C17" t="n">
-        <v>30308993725.45616</v>
+        <v>27825786159.8556</v>
       </c>
       <c r="D17" t="n">
-        <v>379555151404.602</v>
+        <v>383348414528.7825</v>
       </c>
       <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>0.9993970863372503</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B18" t="n">
-        <v>20023.55444491251</v>
+        <v>20153.97597798251</v>
       </c>
       <c r="C18" t="n">
-        <v>27825786159.8556</v>
+        <v>25616737335.88055</v>
       </c>
       <c r="D18" t="n">
-        <v>383348414528.7825</v>
+        <v>385027707310.6654</v>
       </c>
       <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.4380591436505821</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="B19" t="n">
-        <v>20153.97597798251</v>
+        <v>19941.45137004716</v>
       </c>
       <c r="C19" t="n">
-        <v>25616737335.88055</v>
+        <v>24078042298.34007</v>
       </c>
       <c r="D19" t="n">
-        <v>385027707310.6654</v>
+        <v>381788074511.7686</v>
       </c>
       <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-0.8414025113997581</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="B20" t="n">
-        <v>19941.45137004716</v>
+        <v>19814.5642451146</v>
       </c>
       <c r="C20" t="n">
-        <v>24078042298.34007</v>
+        <v>20048153187.39969</v>
       </c>
       <c r="D20" t="n">
-        <v>381788074511.7686</v>
+        <v>379422449024.2574</v>
       </c>
       <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>-0.6196174384274111</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44808</v>
+        <v>44809</v>
       </c>
       <c r="B21" t="n">
-        <v>19814.5642451146</v>
+        <v>19980.01322224228</v>
       </c>
       <c r="C21" t="n">
-        <v>20048153187.39969</v>
+        <v>21537524477.36904</v>
       </c>
       <c r="D21" t="n">
-        <v>379422449024.2574</v>
+        <v>382421043401.0045</v>
       </c>
       <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0.7903049449125898</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="B22" t="n">
-        <v>19980.01322224228</v>
+        <v>19785.73350185514</v>
       </c>
       <c r="C22" t="n">
-        <v>21537524477.36904</v>
+        <v>23522961655.00036</v>
       </c>
       <c r="D22" t="n">
-        <v>382421043401.0045</v>
+        <v>378685143698.1763</v>
       </c>
       <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>-0.9769074603226624</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="B23" t="n">
-        <v>19785.73350185514</v>
+        <v>18859.50008768028</v>
       </c>
       <c r="C23" t="n">
-        <v>23522961655.00036</v>
+        <v>39940310406.47586</v>
       </c>
       <c r="D23" t="n">
-        <v>378685143698.1763</v>
+        <v>361210437263.8627</v>
       </c>
       <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>-4.614574066375699</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="B24" t="n">
-        <v>18859.50008768028</v>
+        <v>19280.62547645678</v>
       </c>
       <c r="C24" t="n">
-        <v>39940310406.47586</v>
+        <v>30517907004.08246</v>
       </c>
       <c r="D24" t="n">
-        <v>361210437263.8627</v>
+        <v>369340091982.8708</v>
       </c>
       <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>2.250669936502803</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="B25" t="n">
-        <v>19280.62547645678</v>
+        <v>19322.77774937157</v>
       </c>
       <c r="C25" t="n">
-        <v>30517907004.08246</v>
+        <v>28936941008.35892</v>
       </c>
       <c r="D25" t="n">
-        <v>369340091982.8708</v>
+        <v>369723445425.4489</v>
       </c>
       <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0.1037941590689373</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44813</v>
+        <v>44814</v>
       </c>
       <c r="B26" t="n">
-        <v>19322.77774937157</v>
+        <v>21359.58252557909</v>
       </c>
       <c r="C26" t="n">
-        <v>28936941008.35892</v>
+        <v>42487059054.97593</v>
       </c>
       <c r="D26" t="n">
-        <v>369723445425.4489</v>
+        <v>408976281844.7646</v>
       </c>
       <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>10.6168101874488</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="B27" t="n">
-        <v>21359.58252557909</v>
+        <v>21707.38731931814</v>
       </c>
       <c r="C27" t="n">
-        <v>42487059054.97593</v>
+        <v>35941349745.24438</v>
       </c>
       <c r="D27" t="n">
-        <v>408976281844.7646</v>
+        <v>415974687298.0947</v>
       </c>
       <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>1.711200811392422</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44815</v>
+        <v>44816</v>
       </c>
       <c r="B28" t="n">
-        <v>21707.38731931814</v>
+        <v>21739.80437979554</v>
       </c>
       <c r="C28" t="n">
-        <v>35941349745.24438</v>
+        <v>31266252145.35619</v>
       </c>
       <c r="D28" t="n">
-        <v>415974687298.0947</v>
+        <v>416073628622.0948</v>
       </c>
       <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>0.02378541940684098</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="B29" t="n">
-        <v>21739.80437979554</v>
+        <v>22339.67050262336</v>
       </c>
       <c r="C29" t="n">
-        <v>31266252145.35619</v>
+        <v>44006486689.44507</v>
       </c>
       <c r="D29" t="n">
-        <v>416073628622.0948</v>
+        <v>427473787888.3761</v>
       </c>
       <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>2.739937953778759</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B30" t="n">
-        <v>22339.67050262336</v>
+        <v>20184.96749189655</v>
       </c>
       <c r="C30" t="n">
-        <v>44006486689.44507</v>
+        <v>46489890914.82466</v>
       </c>
       <c r="D30" t="n">
-        <v>427473787888.3761</v>
+        <v>386529657258.8565</v>
       </c>
       <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>-9.578161700106659</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B31" t="n">
-        <v>20184.96749189655</v>
+        <v>20255.92297832713</v>
       </c>
       <c r="C31" t="n">
-        <v>46489890914.82466</v>
+        <v>35789015870.39223</v>
       </c>
       <c r="D31" t="n">
-        <v>386529657258.8565</v>
+        <v>387486232249.8002</v>
       </c>
       <c r="E31" t="n">
-        <v>1394.52287700307</v>
+        <v>1260.424587270802</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.247477773821414</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="B32" t="n">
-        <v>20255.92297832713</v>
+        <v>19702.16988981172</v>
       </c>
       <c r="C32" t="n">
-        <v>35789015870.39223</v>
+        <v>33715957206.68328</v>
       </c>
       <c r="D32" t="n">
-        <v>387486232249.8002</v>
+        <v>377719382182.4471</v>
       </c>
       <c r="E32" t="n">
-        <v>1260.424587270806</v>
+        <v>1134.073336630094</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-2.520566991669704</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44820</v>
+        <v>44821</v>
       </c>
       <c r="B33" t="n">
-        <v>19702.16988981172</v>
+        <v>19764.41171204378</v>
       </c>
       <c r="C33" t="n">
-        <v>33715957206.68328</v>
+        <v>30187737709.58007</v>
       </c>
       <c r="D33" t="n">
-        <v>377719382182.4471</v>
+        <v>377988702161.6817</v>
       </c>
       <c r="E33" t="n">
-        <v>1134.073336630099</v>
+        <v>1027.879300532719</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0713016042964032</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44821</v>
+        <v>44822</v>
       </c>
       <c r="B34" t="n">
-        <v>19764.41171204378</v>
+        <v>20131.67530571403</v>
       </c>
       <c r="C34" t="n">
-        <v>30187737709.58007</v>
+        <v>23394494073.78478</v>
       </c>
       <c r="D34" t="n">
-        <v>377988702161.6817</v>
+        <v>385486747327.0494</v>
       </c>
       <c r="E34" t="n">
-        <v>1027.879300532726</v>
+        <v>897.7265196932539</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.983669120925335</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="B35" t="n">
-        <v>20131.67530571403</v>
+        <v>19437.15786798263</v>
       </c>
       <c r="C35" t="n">
-        <v>23394494073.78478</v>
+        <v>28689764413.6991</v>
       </c>
       <c r="D35" t="n">
-        <v>385486747327.0494</v>
+        <v>372598380208.2709</v>
       </c>
       <c r="E35" t="n">
-        <v>897.7265196932632</v>
+        <v>912.4103591938899</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-3.343400832362187</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B36" t="n">
-        <v>19437.15786798263</v>
+        <v>19570.38670952351</v>
       </c>
       <c r="C36" t="n">
-        <v>28689764413.6991</v>
+        <v>39507938864.87854</v>
       </c>
       <c r="D36" t="n">
-        <v>372598380208.2709</v>
+        <v>374524246937.4287</v>
       </c>
       <c r="E36" t="n">
-        <v>912.4103591938996</v>
+        <v>913.7591263831104</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.5168746917475264</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B37" t="n">
-        <v>19570.38670952351</v>
+        <v>18869.92880939053</v>
       </c>
       <c r="C37" t="n">
-        <v>39507938864.87854</v>
+        <v>33890591849.67651</v>
       </c>
       <c r="D37" t="n">
-        <v>374524246937.4287</v>
+        <v>361980678159.1343</v>
       </c>
       <c r="E37" t="n">
-        <v>913.7591263831207</v>
+        <v>921.9814278219993</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-3.349200720878842</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="B38" t="n">
-        <v>18869.92880939053</v>
+        <v>18539.63523831258</v>
       </c>
       <c r="C38" t="n">
-        <v>33890591849.67651</v>
+        <v>41059997264.96848</v>
       </c>
       <c r="D38" t="n">
-        <v>361980678159.1343</v>
+        <v>355194467885.9514</v>
       </c>
       <c r="E38" t="n">
-        <v>921.981427822011</v>
+        <v>949.8552588420303</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-1.87474378679392</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B39" t="n">
-        <v>18539.63523831258</v>
+        <v>19464.32266334847</v>
       </c>
       <c r="C39" t="n">
-        <v>41059997264.96848</v>
+        <v>37660914389.8923</v>
       </c>
       <c r="D39" t="n">
-        <v>355194467885.9514</v>
+        <v>372075639498.1697</v>
       </c>
       <c r="E39" t="n">
-        <v>949.8552588420433</v>
+        <v>921.5163516940622</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4.752656118968224</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44827</v>
+        <v>44828</v>
       </c>
       <c r="B40" t="n">
-        <v>19464.32266334847</v>
+        <v>19291.90480245207</v>
       </c>
       <c r="C40" t="n">
-        <v>37660914389.8923</v>
+        <v>35506139423.90134</v>
       </c>
       <c r="D40" t="n">
-        <v>372075639498.1697</v>
+        <v>370913140447.5164</v>
       </c>
       <c r="E40" t="n">
-        <v>921.516351694077</v>
+        <v>900.2683554767491</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.3124362165234151</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44828</v>
+        <v>44829</v>
       </c>
       <c r="B41" t="n">
-        <v>19291.90480245207</v>
+        <v>18939.97058049937</v>
       </c>
       <c r="C41" t="n">
-        <v>35506139423.90134</v>
+        <v>24644354421.61794</v>
       </c>
       <c r="D41" t="n">
-        <v>370913140447.5164</v>
+        <v>363168779956.3335</v>
       </c>
       <c r="E41" t="n">
-        <v>900.2683554767658</v>
+        <v>870.8797960409995</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-2.087917532886296</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44829</v>
+        <v>44830</v>
       </c>
       <c r="B42" t="n">
-        <v>18939.97058049937</v>
+        <v>18809.41143933244</v>
       </c>
       <c r="C42" t="n">
-        <v>24644354421.61794</v>
+        <v>21516374222.67532</v>
       </c>
       <c r="D42" t="n">
-        <v>363168779956.3335</v>
+        <v>360256894978.4089</v>
       </c>
       <c r="E42" t="n">
-        <v>870.8797960410187</v>
+        <v>893.0451917501331</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.8017993667502665</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="B43" t="n">
-        <v>18809.41143933244</v>
+        <v>19219.72778065647</v>
       </c>
       <c r="C43" t="n">
-        <v>21516374222.67532</v>
+        <v>42560193944.41844</v>
       </c>
       <c r="D43" t="n">
-        <v>360256894978.4089</v>
+        <v>367613056759.2221</v>
       </c>
       <c r="E43" t="n">
-        <v>893.0451917501528</v>
+        <v>901.0455393453503</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.041921163300442</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="B44" t="n">
-        <v>19219.72778065647</v>
+        <v>19116.33116071044</v>
       </c>
       <c r="C44" t="n">
-        <v>42560193944.41844</v>
+        <v>52482615483.86207</v>
       </c>
       <c r="D44" t="n">
-        <v>367613056759.2221</v>
+        <v>366383164263.7157</v>
       </c>
       <c r="E44" t="n">
-        <v>901.0455393453705</v>
+        <v>910.9356338778412</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.3345617009223756</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="B45" t="n">
-        <v>19116.33116071044</v>
+        <v>19444.78777136298</v>
       </c>
       <c r="C45" t="n">
-        <v>52482615483.86207</v>
+        <v>47494258189.70422</v>
       </c>
       <c r="D45" t="n">
-        <v>366383164263.7157</v>
+        <v>372892084645.0075</v>
       </c>
       <c r="E45" t="n">
-        <v>910.9356338778613</v>
+        <v>909.8272227488392</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.7765336991868</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B46" t="n">
-        <v>19444.78777136298</v>
+        <v>19563.7651617769</v>
       </c>
       <c r="C46" t="n">
-        <v>47494258189.70422</v>
+        <v>37537716230.48356</v>
       </c>
       <c r="D46" t="n">
-        <v>372892084645.0075</v>
+        <v>374830625219.6003</v>
       </c>
       <c r="E46" t="n">
-        <v>909.8272227488598</v>
+        <v>911.1079332284502</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.5198663780804802</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44834</v>
+        <v>44835</v>
       </c>
       <c r="B47" t="n">
-        <v>19563.7651617769</v>
+        <v>19476.92659600407</v>
       </c>
       <c r="C47" t="n">
-        <v>37537716230.48356</v>
+        <v>37848666330.67224</v>
       </c>
       <c r="D47" t="n">
-        <v>374830625219.6003</v>
+        <v>373222100680.7475</v>
       </c>
       <c r="E47" t="n">
-        <v>911.107933228471</v>
+        <v>912.3722041724828</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.4291337021649189</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44835</v>
+        <v>44836</v>
       </c>
       <c r="B48" t="n">
-        <v>19476.92659600407</v>
+        <v>19314.46383521745</v>
       </c>
       <c r="C48" t="n">
-        <v>37848666330.67224</v>
+        <v>15943514602.72215</v>
       </c>
       <c r="D48" t="n">
-        <v>373222100680.7475</v>
+        <v>370204708063.3375</v>
       </c>
       <c r="E48" t="n">
-        <v>912.3722041725038</v>
+        <v>914.0862225618099</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.8084710449639321</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44836</v>
+        <v>44837</v>
       </c>
       <c r="B49" t="n">
-        <v>19314.46383521745</v>
+        <v>19065.15383714899</v>
       </c>
       <c r="C49" t="n">
-        <v>15943514602.72215</v>
+        <v>17859684587.64641</v>
       </c>
       <c r="D49" t="n">
-        <v>370204708063.3375</v>
+        <v>366195863790.6755</v>
       </c>
       <c r="E49" t="n">
-        <v>914.0862225618315</v>
+        <v>922.5228880798152</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-1.082872309656358</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="B50" t="n">
-        <v>19065.15383714899</v>
+        <v>19620.56754359139</v>
       </c>
       <c r="C50" t="n">
-        <v>17859684587.64641</v>
+        <v>26634227151.92525</v>
       </c>
       <c r="D50" t="n">
-        <v>366195863790.6755</v>
+        <v>375767908259.0832</v>
       </c>
       <c r="E50" t="n">
-        <v>922.5228880798372</v>
+        <v>922.6990080134274</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2.613913868202311</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="B51" t="n">
-        <v>19620.56754359139</v>
+        <v>20345.39852010664</v>
       </c>
       <c r="C51" t="n">
-        <v>26634227151.92525</v>
+        <v>30974520027.94433</v>
       </c>
       <c r="D51" t="n">
-        <v>375767908259.0832</v>
+        <v>390177741507.4771</v>
       </c>
       <c r="E51" t="n">
-        <v>922.6990080134494</v>
+        <v>928.3891787324577</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3.834769529722215</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="B52" t="n">
-        <v>20345.39852010664</v>
+        <v>20161.83061498505</v>
       </c>
       <c r="C52" t="n">
-        <v>30974520027.94433</v>
+        <v>29366342083.10176</v>
       </c>
       <c r="D52" t="n">
-        <v>390177741507.4771</v>
+        <v>386368899196.3817</v>
       </c>
       <c r="E52" t="n">
-        <v>928.3891787324794</v>
+        <v>931.411547642644</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.9761813414521536</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="B53" t="n">
-        <v>20161.83061498505</v>
+        <v>19949.05104141851</v>
       </c>
       <c r="C53" t="n">
-        <v>29366342083.10176</v>
+        <v>31354758329.14231</v>
       </c>
       <c r="D53" t="n">
-        <v>386368899196.3817</v>
+        <v>382505641462.1564</v>
       </c>
       <c r="E53" t="n">
-        <v>931.4115476426654</v>
+        <v>916.0690080912759</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.9998883818704063</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44841</v>
+        <v>44842</v>
       </c>
       <c r="B54" t="n">
-        <v>19949.05104141851</v>
+        <v>19457.30895125115</v>
       </c>
       <c r="C54" t="n">
-        <v>31354758329.14231</v>
+        <v>25445042398.33797</v>
       </c>
       <c r="D54" t="n">
-        <v>382505641462.1564</v>
+        <v>373170861484.1396</v>
       </c>
       <c r="E54" t="n">
-        <v>916.069008091297</v>
+        <v>913.1804635191994</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-2.440429360030849</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44842</v>
+        <v>44843</v>
       </c>
       <c r="B55" t="n">
-        <v>19457.30895125115</v>
+        <v>19418.03798924395</v>
       </c>
       <c r="C55" t="n">
-        <v>25445042398.33797</v>
+        <v>12996183216.30484</v>
       </c>
       <c r="D55" t="n">
-        <v>373170861484.1396</v>
+        <v>372391945609.0753</v>
       </c>
       <c r="E55" t="n">
-        <v>913.1804635192203</v>
+        <v>911.6081445764478</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.208729018114262</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44843</v>
+        <v>44844</v>
       </c>
       <c r="B56" t="n">
-        <v>19418.03798924395</v>
+        <v>19448.14900175761</v>
       </c>
       <c r="C56" t="n">
-        <v>12996183216.30484</v>
+        <v>14404623229.04686</v>
       </c>
       <c r="D56" t="n">
-        <v>372391945609.0753</v>
+        <v>372264710552.3351</v>
       </c>
       <c r="E56" t="n">
-        <v>911.6081445764688</v>
+        <v>865.0874298739568</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.03416697333022967</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44844</v>
+        <v>44845</v>
       </c>
       <c r="B57" t="n">
-        <v>19448.14900175761</v>
+        <v>19142.6947673929</v>
       </c>
       <c r="C57" t="n">
-        <v>14404623229.04686</v>
+        <v>23743487600.53748</v>
       </c>
       <c r="D57" t="n">
-        <v>372264710552.3351</v>
+        <v>367207056773.2261</v>
       </c>
       <c r="E57" t="n">
-        <v>865.0874298739799</v>
+        <v>787.7401800833004</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-1.358617573931431</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="B58" t="n">
-        <v>19142.6947673929</v>
+        <v>19058.62803973827</v>
       </c>
       <c r="C58" t="n">
-        <v>23743487600.53748</v>
+        <v>25102717820.99086</v>
       </c>
       <c r="D58" t="n">
-        <v>367207056773.2261</v>
+        <v>365118514776.2679</v>
       </c>
       <c r="E58" t="n">
-        <v>787.7401800833275</v>
+        <v>689.5614802072836</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.5687641232472118</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="B59" t="n">
-        <v>19058.62803973827</v>
+        <v>19153.03977998699</v>
       </c>
       <c r="C59" t="n">
-        <v>25102717820.99086</v>
+        <v>22339104401.38417</v>
       </c>
       <c r="D59" t="n">
-        <v>365118514776.2679</v>
+        <v>367301644901.367</v>
       </c>
       <c r="E59" t="n">
-        <v>689.5614802073164</v>
+        <v>453.1337595961897</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.5979236978537861</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="B60" t="n">
-        <v>19153.03977998699</v>
+        <v>19383.9432200889</v>
       </c>
       <c r="C60" t="n">
-        <v>22339104401.38417</v>
+        <v>37194496437.924</v>
       </c>
       <c r="D60" t="n">
-        <v>367301644901.367</v>
+        <v>371647189087.476</v>
       </c>
       <c r="E60" t="n">
-        <v>453.1337595962432</v>
+        <v>432.3026378934536</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.183099571273605</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44848</v>
+        <v>44849</v>
       </c>
       <c r="B61" t="n">
-        <v>19383.9432200889</v>
+        <v>19198.10714495175</v>
       </c>
       <c r="C61" t="n">
-        <v>37194496437.924</v>
+        <v>34806651159.13548</v>
       </c>
       <c r="D61" t="n">
-        <v>371647189087.476</v>
+        <v>367584653730.7548</v>
       </c>
       <c r="E61" t="n">
-        <v>432.3026378935106</v>
+        <v>405.5345601131</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-1.093116126263771</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44849</v>
+        <v>44850</v>
       </c>
       <c r="B62" t="n">
-        <v>19198.10714495175</v>
+        <v>19072.78051335888</v>
       </c>
       <c r="C62" t="n">
-        <v>34806651159.13548</v>
+        <v>13103099352.40551</v>
       </c>
       <c r="D62" t="n">
-        <v>367584653730.7548</v>
+        <v>365870425566.53</v>
       </c>
       <c r="E62" t="n">
-        <v>405.5345601131621</v>
+        <v>405.7484602640561</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.4663492196495311</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="B63" t="n">
-        <v>19072.78051335888</v>
+        <v>19272.92184777201</v>
       </c>
       <c r="C63" t="n">
-        <v>13103099352.40551</v>
+        <v>15683330320.15959</v>
       </c>
       <c r="D63" t="n">
-        <v>365870425566.53</v>
+        <v>369552982160.5375</v>
       </c>
       <c r="E63" t="n">
-        <v>405.7484602641189</v>
+        <v>399.6088782445628</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.006519340366285</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44851</v>
+        <v>44852</v>
       </c>
       <c r="B64" t="n">
-        <v>19272.92184777201</v>
+        <v>19557.89554886844</v>
       </c>
       <c r="C64" t="n">
-        <v>15683330320.15959</v>
+        <v>23713928577.51984</v>
       </c>
       <c r="D64" t="n">
-        <v>369552982160.5375</v>
+        <v>375052275829.7958</v>
       </c>
       <c r="E64" t="n">
-        <v>399.6088782446271</v>
+        <v>374.5763250644699</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.48809343577947</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="B65" t="n">
-        <v>19557.89554886844</v>
+        <v>19348.02936881037</v>
       </c>
       <c r="C65" t="n">
-        <v>23713928577.51984</v>
+        <v>25848175158.68719</v>
       </c>
       <c r="D65" t="n">
-        <v>375052275829.7958</v>
+        <v>371196833238.9929</v>
       </c>
       <c r="E65" t="n">
-        <v>374.5763250645394</v>
+        <v>374.1773104390214</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-1.027974722263136</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="B66" t="n">
-        <v>19348.02936881037</v>
+        <v>19134.2426644652</v>
       </c>
       <c r="C66" t="n">
-        <v>25848175158.68719</v>
+        <v>23047051893.29477</v>
       </c>
       <c r="D66" t="n">
-        <v>371196833238.9929</v>
+        <v>367085331987.6918</v>
       </c>
       <c r="E66" t="n">
-        <v>374.1773104390911</v>
+        <v>373.4901600516549</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-1.107633708893707</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="B67" t="n">
-        <v>19134.2426644652</v>
+        <v>19031.15987195947</v>
       </c>
       <c r="C67" t="n">
-        <v>23047051893.29477</v>
+        <v>25712511231.93569</v>
       </c>
       <c r="D67" t="n">
-        <v>367085331987.6918</v>
+        <v>365098952754.6393</v>
       </c>
       <c r="E67" t="n">
-        <v>373.4901600517253</v>
+        <v>367.7884343092499</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.5411219299601644</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44855</v>
+        <v>44856</v>
       </c>
       <c r="B68" t="n">
-        <v>19031.15987195947</v>
+        <v>19173.28046885863</v>
       </c>
       <c r="C68" t="n">
-        <v>25712511231.93569</v>
+        <v>30297335038.197</v>
       </c>
       <c r="D68" t="n">
-        <v>365098952754.6393</v>
+        <v>367999082249.1525</v>
       </c>
       <c r="E68" t="n">
-        <v>367.788434309321</v>
+        <v>337.5903679142812</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.7943406774059358</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44856</v>
+        <v>44857</v>
       </c>
       <c r="B69" t="n">
-        <v>19173.28046885863</v>
+        <v>19203.86547117714</v>
       </c>
       <c r="C69" t="n">
-        <v>30297335038.197</v>
+        <v>13362526957.65784</v>
       </c>
       <c r="D69" t="n">
-        <v>367999082249.1525</v>
+        <v>368484939423.5547</v>
       </c>
       <c r="E69" t="n">
-        <v>337.590367914358</v>
+        <v>338.0164577654863</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.132026735347468</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44857</v>
+        <v>44858</v>
       </c>
       <c r="B70" t="n">
-        <v>19203.86547117714</v>
+        <v>19574.8242318408</v>
       </c>
       <c r="C70" t="n">
-        <v>13362526957.65784</v>
+        <v>19928822961.41621</v>
       </c>
       <c r="D70" t="n">
-        <v>368484939423.5547</v>
+        <v>375197423662.3941</v>
       </c>
       <c r="E70" t="n">
-        <v>338.0164577655632</v>
+        <v>340.3998521456297</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.821644121830368</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44858</v>
+        <v>44859</v>
       </c>
       <c r="B71" t="n">
-        <v>19574.8242318408</v>
+        <v>19316.94062294213</v>
       </c>
       <c r="C71" t="n">
-        <v>19928822961.41621</v>
+        <v>28657172008.9177</v>
       </c>
       <c r="D71" t="n">
-        <v>375197423662.3941</v>
+        <v>370622833880.7626</v>
       </c>
       <c r="E71" t="n">
-        <v>340.3998521457059</v>
+        <v>331.3813170677289</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-1.219248718975152</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="B72" t="n">
-        <v>19316.94062294213</v>
+        <v>20095.15223067492</v>
       </c>
       <c r="C72" t="n">
-        <v>28657172008.9177</v>
+        <v>39846253138.59686</v>
       </c>
       <c r="D72" t="n">
-        <v>370622833880.7626</v>
+        <v>385476931983.8459</v>
       </c>
       <c r="E72" t="n">
-        <v>331.3813170678068</v>
+        <v>339.7156990697279</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4.007874514246001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="B73" t="n">
-        <v>20095.15223067492</v>
+        <v>20774.24749642603</v>
       </c>
       <c r="C73" t="n">
-        <v>39846253138.59686</v>
+        <v>50667020407.51415</v>
       </c>
       <c r="D73" t="n">
-        <v>385476931983.8459</v>
+        <v>398674628646.9307</v>
       </c>
       <c r="E73" t="n">
-        <v>339.715699069803</v>
+        <v>418.9166221735864</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3.423731893673421</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="B74" t="n">
-        <v>20774.24749642603</v>
+        <v>20278.36623205219</v>
       </c>
       <c r="C74" t="n">
-        <v>50667020407.51415</v>
+        <v>41829789298.17936</v>
       </c>
       <c r="D74" t="n">
-        <v>398674628646.9307</v>
+        <v>389238872375.6226</v>
       </c>
       <c r="E74" t="n">
-        <v>418.9166221736464</v>
+        <v>439.0487832924014</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-2.366781227923187</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44862</v>
+        <v>44863</v>
       </c>
       <c r="B75" t="n">
-        <v>20278.36623205219</v>
+        <v>20591.24120809861</v>
       </c>
       <c r="C75" t="n">
-        <v>41829789298.17936</v>
+        <v>36165609164.5681</v>
       </c>
       <c r="D75" t="n">
-        <v>389238872375.6226</v>
+        <v>395201306734.5831</v>
       </c>
       <c r="E75" t="n">
-        <v>439.048783292458</v>
+        <v>481.784772216678</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.531818834683762</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44863</v>
+        <v>44864</v>
       </c>
       <c r="B76" t="n">
-        <v>20591.24120809861</v>
+        <v>20800.70708772471</v>
       </c>
       <c r="C76" t="n">
-        <v>36165609164.5681</v>
+        <v>32806216910.57045</v>
       </c>
       <c r="D76" t="n">
-        <v>395201306734.5831</v>
+        <v>399135164712.3964</v>
       </c>
       <c r="E76" t="n">
-        <v>481.784772216729</v>
+        <v>534.0373343471746</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.9954061160165395</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44864</v>
+        <v>44865</v>
       </c>
       <c r="B77" t="n">
-        <v>20800.70708772471</v>
+        <v>20623.87149704095</v>
       </c>
       <c r="C77" t="n">
-        <v>32806216910.57045</v>
+        <v>24707906148.74934</v>
       </c>
       <c r="D77" t="n">
-        <v>399135164712.3964</v>
+        <v>395548335410.141</v>
       </c>
       <c r="E77" t="n">
-        <v>534.0373343472199</v>
+        <v>566.4293820950713</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.8986502867618706</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="B78" t="n">
-        <v>20623.87149704095</v>
+        <v>20494.60120983709</v>
       </c>
       <c r="C78" t="n">
-        <v>24707906148.74934</v>
+        <v>37290619694.72375</v>
       </c>
       <c r="D78" t="n">
-        <v>395548335410.141</v>
+        <v>393311097043.5727</v>
       </c>
       <c r="E78" t="n">
-        <v>566.4293820951137</v>
+        <v>585.2278861819598</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.5656042931513117</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="B79" t="n">
-        <v>20494.60120983709</v>
+        <v>20489.64620316076</v>
       </c>
       <c r="C79" t="n">
-        <v>37290619694.72375</v>
+        <v>32262771910.72707</v>
       </c>
       <c r="D79" t="n">
-        <v>393311097043.5727</v>
+        <v>393218202887.5868</v>
       </c>
       <c r="E79" t="n">
-        <v>585.2278861820002</v>
+        <v>593.1858703687874</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.02361849352437995</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="B80" t="n">
-        <v>20489.64620316076</v>
+        <v>20162.98090482253</v>
       </c>
       <c r="C80" t="n">
-        <v>32262771910.72707</v>
+        <v>44539856162.44828</v>
       </c>
       <c r="D80" t="n">
-        <v>393218202887.5868</v>
+        <v>387015867490.0914</v>
       </c>
       <c r="E80" t="n">
-        <v>593.1858703688267</v>
+        <v>598.7424472063902</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-1.577326622203334</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="B81" t="n">
-        <v>20162.98090482253</v>
+        <v>20210.91241711132</v>
       </c>
       <c r="C81" t="n">
-        <v>44539856162.44828</v>
+        <v>36562782563.97916</v>
       </c>
       <c r="D81" t="n">
-        <v>387015867490.0914</v>
+        <v>387756249891.6283</v>
       </c>
       <c r="E81" t="n">
-        <v>598.742447206429</v>
+        <v>594.4155187047396</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.1913054382856494</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44869</v>
+        <v>44870</v>
       </c>
       <c r="B82" t="n">
-        <v>20210.91241711132</v>
+        <v>21150.3155839124</v>
       </c>
       <c r="C82" t="n">
-        <v>36562782563.97916</v>
+        <v>33773463079.33267</v>
       </c>
       <c r="D82" t="n">
-        <v>387756249891.6283</v>
+        <v>405987599945.2726</v>
       </c>
       <c r="E82" t="n">
-        <v>594.4155187047786</v>
+        <v>645.0341442349986</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4.701755306004651</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44870</v>
+        <v>44871</v>
       </c>
       <c r="B83" t="n">
-        <v>21150.3155839124</v>
+        <v>21282.98510942269</v>
       </c>
       <c r="C83" t="n">
-        <v>33773463079.33267</v>
+        <v>31061573100.60496</v>
       </c>
       <c r="D83" t="n">
-        <v>405987599945.2726</v>
+        <v>408892506459.0742</v>
       </c>
       <c r="E83" t="n">
-        <v>645.0341442350342</v>
+        <v>702.4871723587961</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.7155160685186512</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44871</v>
+        <v>44872</v>
       </c>
       <c r="B84" t="n">
-        <v>21282.98510942269</v>
+        <v>20906.99792695512</v>
       </c>
       <c r="C84" t="n">
-        <v>31061573100.60496</v>
+        <v>50602704770.81252</v>
       </c>
       <c r="D84" t="n">
-        <v>408892506459.0742</v>
+        <v>401869336200.0739</v>
       </c>
       <c r="E84" t="n">
-        <v>702.4871723588283</v>
+        <v>727.74314439497</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-1.717607964944035</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44872</v>
+        <v>44873</v>
       </c>
       <c r="B85" t="n">
-        <v>20906.99792695512</v>
+        <v>20597.75501706083</v>
       </c>
       <c r="C85" t="n">
-        <v>50602704770.81252</v>
+        <v>91750982446.38734</v>
       </c>
       <c r="D85" t="n">
-        <v>401869336200.0739</v>
+        <v>395168506455.3059</v>
       </c>
       <c r="E85" t="n">
-        <v>727.7431443950007</v>
+        <v>735.7051610485015</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-1.667415037964448</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="B86" t="n">
-        <v>20597.75501706083</v>
+        <v>18562.35321508964</v>
       </c>
       <c r="C86" t="n">
-        <v>91750982446.38734</v>
+        <v>92144963385.0274</v>
       </c>
       <c r="D86" t="n">
-        <v>395168506455.3059</v>
+        <v>356871594631.614</v>
       </c>
       <c r="E86" t="n">
-        <v>735.7051610485312</v>
+        <v>770.7550556571508</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-9.691286425433654</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="B87" t="n">
-        <v>18562.35321508964</v>
+        <v>15742.44433596144</v>
       </c>
       <c r="C87" t="n">
-        <v>92144963385.0274</v>
+        <v>74978675390.59279</v>
       </c>
       <c r="D87" t="n">
-        <v>356871594631.614</v>
+        <v>301963847693.5264</v>
       </c>
       <c r="E87" t="n">
-        <v>770.7550556571796</v>
+        <v>1070.722167457548</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-15.38585523870761</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="B88" t="n">
-        <v>15742.44433596144</v>
+        <v>17594.92350027823</v>
       </c>
       <c r="C88" t="n">
-        <v>74978675390.59279</v>
+        <v>65200666543.36462</v>
       </c>
       <c r="D88" t="n">
-        <v>301963847693.5264</v>
+        <v>336597208099.6668</v>
       </c>
       <c r="E88" t="n">
-        <v>1070.72216745757</v>
+        <v>1134.367825164393</v>
+      </c>
+      <c r="F88" t="n">
+        <v>11.46937312882934</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44876</v>
+        <v>44877</v>
       </c>
       <c r="B89" t="n">
-        <v>17594.92350027823</v>
+        <v>17080.21526056504</v>
       </c>
       <c r="C89" t="n">
-        <v>65200666543.36462</v>
+        <v>45030331310.74984</v>
       </c>
       <c r="D89" t="n">
-        <v>336597208099.6668</v>
+        <v>325921112619.0905</v>
       </c>
       <c r="E89" t="n">
-        <v>1134.367825164414</v>
+        <v>1227.662190277663</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-3.171771845895743</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44877</v>
+        <v>44878</v>
       </c>
       <c r="B90" t="n">
-        <v>17080.21526056504</v>
+        <v>16797.98748257006</v>
       </c>
       <c r="C90" t="n">
-        <v>45030331310.74984</v>
+        <v>21893997140.86048</v>
       </c>
       <c r="D90" t="n">
-        <v>325921112619.0905</v>
+        <v>322330608513.1628</v>
       </c>
       <c r="E90" t="n">
-        <v>1227.662190277683</v>
+        <v>1331.465019747672</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-1.101648210842954</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44878</v>
+        <v>44879</v>
       </c>
       <c r="B91" t="n">
-        <v>16797.98748257006</v>
+        <v>16344.34231600104</v>
       </c>
       <c r="C91" t="n">
-        <v>21893997140.86048</v>
+        <v>20411619109.0078</v>
       </c>
       <c r="D91" t="n">
-        <v>322330608513.1628</v>
+        <v>313605586517.2854</v>
       </c>
       <c r="E91" t="n">
-        <v>1331.465019747691</v>
+        <v>1452.941826245092</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-2.706854938823189</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="B92" t="n">
-        <v>16344.34231600104</v>
+        <v>16645.82850028351</v>
       </c>
       <c r="C92" t="n">
-        <v>20411619109.0078</v>
+        <v>37539226046.10629</v>
       </c>
       <c r="D92" t="n">
-        <v>313605586517.2854</v>
+        <v>320598982524.9025</v>
       </c>
       <c r="E92" t="n">
-        <v>1452.94182624511</v>
+        <v>1539.226925303288</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2.22999726672013</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="B93" t="n">
-        <v>16645.82850028351</v>
+        <v>16890.52938386464</v>
       </c>
       <c r="C93" t="n">
-        <v>37539226046.10629</v>
+        <v>28676275678.9418</v>
       </c>
       <c r="D93" t="n">
-        <v>320598982524.9025</v>
+        <v>324608360619.0043</v>
       </c>
       <c r="E93" t="n">
-        <v>1539.226925303306</v>
+        <v>1604.040083509657</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.250589774966104</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="B94" t="n">
-        <v>16890.52938386464</v>
+        <v>16689.39673273771</v>
       </c>
       <c r="C94" t="n">
-        <v>28676275678.9418</v>
+        <v>26922027947.40891</v>
       </c>
       <c r="D94" t="n">
-        <v>324608360619.0043</v>
+        <v>320099234744.2721</v>
       </c>
       <c r="E94" t="n">
-        <v>1604.040083509675</v>
+        <v>1671.117018920463</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-1.389097269747974</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="B95" t="n">
-        <v>16689.39673273771</v>
+        <v>16718.36122805508</v>
       </c>
       <c r="C95" t="n">
-        <v>26922027947.40891</v>
+        <v>22011291267.35617</v>
       </c>
       <c r="D95" t="n">
-        <v>320099234744.2721</v>
+        <v>321287480849.7667</v>
       </c>
       <c r="E95" t="n">
-        <v>1671.117018920482</v>
+        <v>1730.263995769109</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.3712117920069202</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44883</v>
+        <v>44884</v>
       </c>
       <c r="B96" t="n">
-        <v>16718.36122805508</v>
+        <v>16707.02277898653</v>
       </c>
       <c r="C96" t="n">
-        <v>22011291267.35617</v>
+        <v>20942172141.41462</v>
       </c>
       <c r="D96" t="n">
-        <v>321287480849.7667</v>
+        <v>320876918352.4405</v>
       </c>
       <c r="E96" t="n">
-        <v>1730.263995769128</v>
+        <v>1784.444115508637</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.1277866464763355</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44884</v>
+        <v>44885</v>
       </c>
       <c r="B97" t="n">
-        <v>16707.02277898653</v>
+        <v>16712.72952579482</v>
       </c>
       <c r="C97" t="n">
-        <v>20942172141.41462</v>
+        <v>10844466289.90113</v>
       </c>
       <c r="D97" t="n">
-        <v>320876918352.4405</v>
+        <v>321151208473.7581</v>
       </c>
       <c r="E97" t="n">
-        <v>1784.444115508655</v>
+        <v>1833.377032304604</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.08548141222683991</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44885</v>
+        <v>44886</v>
       </c>
       <c r="B98" t="n">
-        <v>16712.72952579482</v>
+        <v>16304.07685562355</v>
       </c>
       <c r="C98" t="n">
-        <v>10844466289.90113</v>
+        <v>15680401749.95844</v>
       </c>
       <c r="D98" t="n">
-        <v>321151208473.7581</v>
+        <v>313370674122.3842</v>
       </c>
       <c r="E98" t="n">
-        <v>1833.377032304623</v>
+        <v>1894.629112695405</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-2.422701252892734</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="B99" t="n">
-        <v>16304.07685562355</v>
+        <v>15814.33528085526</v>
       </c>
       <c r="C99" t="n">
-        <v>15680401749.95844</v>
+        <v>31057277097.34788</v>
       </c>
       <c r="D99" t="n">
-        <v>313370674122.3842</v>
+        <v>303834128504.1595</v>
       </c>
       <c r="E99" t="n">
-        <v>1894.629112695425</v>
+        <v>1971.968697377627</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-3.043215720466652</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="B100" t="n">
-        <v>15814.33528085526</v>
+        <v>16171.62897831509</v>
       </c>
       <c r="C100" t="n">
-        <v>31057277097.34788</v>
+        <v>25091849198.57105</v>
       </c>
       <c r="D100" t="n">
-        <v>303834128504.1595</v>
+        <v>311463297390.4882</v>
       </c>
       <c r="E100" t="n">
-        <v>1971.968697377646</v>
+        <v>2019.127142621296</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2.510965086077976</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="B101" t="n">
-        <v>16171.62897831509</v>
+        <v>16608.00998544357</v>
       </c>
       <c r="C101" t="n">
-        <v>25091849198.57105</v>
+        <v>26858079944.17004</v>
       </c>
       <c r="D101" t="n">
-        <v>311463297390.4882</v>
+        <v>319494112507.074</v>
       </c>
       <c r="E101" t="n">
-        <v>2019.127142621316</v>
+        <v>2047.189989961817</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2.578414594550904</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="B102" t="n">
-        <v>16608.00998544357</v>
+        <v>16596.03575847268</v>
       </c>
       <c r="C102" t="n">
-        <v>26858079944.17004</v>
+        <v>20949512927.38694</v>
       </c>
       <c r="D102" t="n">
-        <v>319494112507.074</v>
+        <v>318949911014.5378</v>
       </c>
       <c r="E102" t="n">
-        <v>2047.189989961838</v>
+        <v>2054.498314084904</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.1703322443928124</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44890</v>
+        <v>44891</v>
       </c>
       <c r="B103" t="n">
-        <v>16596.03575847268</v>
+        <v>16524.44900772089</v>
       </c>
       <c r="C103" t="n">
-        <v>20949512927.38694</v>
+        <v>18933018587.76629</v>
       </c>
       <c r="D103" t="n">
-        <v>318949911014.5378</v>
+        <v>317919884011.3825</v>
       </c>
       <c r="E103" t="n">
-        <v>2054.498314084926</v>
+        <v>2032.361061568123</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.3229431856177523</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44891</v>
+        <v>44892</v>
       </c>
       <c r="B104" t="n">
-        <v>16524.44900772089</v>
+        <v>16456.15606249668</v>
       </c>
       <c r="C104" t="n">
-        <v>18933018587.76629</v>
+        <v>18243019109.75323</v>
       </c>
       <c r="D104" t="n">
-        <v>317919884011.3825</v>
+        <v>316206865319.883</v>
       </c>
       <c r="E104" t="n">
-        <v>2032.361061568147</v>
+        <v>2021.884665456072</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-0.5388208720654264</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="B105" t="n">
-        <v>16456.15606249668</v>
+        <v>16459.14954375588</v>
       </c>
       <c r="C105" t="n">
-        <v>18243019109.75323</v>
+        <v>16551822516.18543</v>
       </c>
       <c r="D105" t="n">
-        <v>316206865319.883</v>
+        <v>316487666895.4407</v>
       </c>
       <c r="E105" t="n">
-        <v>2021.884665456097</v>
+        <v>1989.80254919226</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.08880312426917669</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="B106" t="n">
-        <v>16459.14954375588</v>
+        <v>16222.21072873122</v>
       </c>
       <c r="C106" t="n">
-        <v>16551822516.18543</v>
+        <v>24566056814.21229</v>
       </c>
       <c r="D106" t="n">
-        <v>316487666895.4407</v>
+        <v>311810991501.448</v>
       </c>
       <c r="E106" t="n">
-        <v>1989.802549192287</v>
+        <v>1942.988213363722</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-1.477680138334658</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="B107" t="n">
-        <v>16222.21072873122</v>
+        <v>16441.97997841911</v>
       </c>
       <c r="C107" t="n">
-        <v>24566056814.21229</v>
+        <v>24663035431.35206</v>
       </c>
       <c r="D107" t="n">
-        <v>311810991501.448</v>
+        <v>316170903326.0224</v>
       </c>
       <c r="E107" t="n">
-        <v>1942.98821336375</v>
+        <v>1886.462342896043</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.39825469383883</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="B108" t="n">
-        <v>16441.97997841911</v>
+        <v>17186.50257206612</v>
       </c>
       <c r="C108" t="n">
-        <v>24663035431.35206</v>
+        <v>30676053555.32337</v>
       </c>
       <c r="D108" t="n">
-        <v>316170903326.0224</v>
+        <v>330763402606.7043</v>
       </c>
       <c r="E108" t="n">
-        <v>1886.462342896074</v>
+        <v>1813.51677309567</v>
+      </c>
+      <c r="F108" t="n">
+        <v>4.615383366139381</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="B109" t="n">
-        <v>17186.50257206612</v>
+        <v>16972.73406077455</v>
       </c>
       <c r="C109" t="n">
-        <v>30676053555.32337</v>
+        <v>23319572025.36399</v>
       </c>
       <c r="D109" t="n">
-        <v>330763402606.7043</v>
+        <v>326141917292.6375</v>
       </c>
       <c r="E109" t="n">
-        <v>1813.516773095703</v>
+        <v>1732.294775582273</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-1.397217853500565</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44897</v>
+        <v>44898</v>
       </c>
       <c r="B110" t="n">
-        <v>16972.73406077455</v>
+        <v>17084.87334047068</v>
       </c>
       <c r="C110" t="n">
-        <v>23319572025.36399</v>
+        <v>20945433171.6152</v>
       </c>
       <c r="D110" t="n">
-        <v>326141917292.6375</v>
+        <v>328178365692.1309</v>
       </c>
       <c r="E110" t="n">
-        <v>1732.294775582308</v>
+        <v>1657.774818380331</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.6244056012175259</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44898</v>
+        <v>44899</v>
       </c>
       <c r="B111" t="n">
-        <v>17084.87334047068</v>
+        <v>16923.38287008033</v>
       </c>
       <c r="C111" t="n">
-        <v>20945433171.6152</v>
+        <v>16931408153.95011</v>
       </c>
       <c r="D111" t="n">
-        <v>328178365692.1309</v>
+        <v>326498242602.6305</v>
       </c>
       <c r="E111" t="n">
-        <v>1657.774818380368</v>
+        <v>1570.738950165688</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.5119542496218599</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="B112" t="n">
-        <v>16923.38287008033</v>
+        <v>17149.93175096291</v>
       </c>
       <c r="C112" t="n">
-        <v>16931408153.95011</v>
+        <v>18214353301.13762</v>
       </c>
       <c r="D112" t="n">
-        <v>326498242602.6305</v>
+        <v>329544949093.6664</v>
       </c>
       <c r="E112" t="n">
-        <v>1570.738950165729</v>
+        <v>1389.58517797548</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.9331463675729346</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44900</v>
+        <v>44901</v>
       </c>
       <c r="B113" t="n">
-        <v>17149.93175096291</v>
+        <v>16973.37257755349</v>
       </c>
       <c r="C113" t="n">
-        <v>18214353301.13762</v>
+        <v>23204017213.92963</v>
       </c>
       <c r="D113" t="n">
-        <v>329544949093.6664</v>
+        <v>326635737516.3175</v>
       </c>
       <c r="E113" t="n">
-        <v>1389.585177975528</v>
+        <v>1148.293235417839</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-0.8827965912844293</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="B114" t="n">
-        <v>16973.37257755349</v>
+        <v>17085.64314125141</v>
       </c>
       <c r="C114" t="n">
-        <v>23204017213.92963</v>
+        <v>21026126511.19885</v>
       </c>
       <c r="D114" t="n">
-        <v>326635737516.3175</v>
+        <v>328108161816.8727</v>
       </c>
       <c r="E114" t="n">
-        <v>1148.293235417899</v>
+        <v>880.1262402825654</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.450784813612648</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="B115" t="n">
-        <v>17085.64314125141</v>
+        <v>16851.30346863184</v>
       </c>
       <c r="C115" t="n">
-        <v>21026126511.19885</v>
+        <v>21192130005.60365</v>
       </c>
       <c r="D115" t="n">
-        <v>328108161816.8727</v>
+        <v>324178677956.7833</v>
       </c>
       <c r="E115" t="n">
-        <v>880.1262402826472</v>
+        <v>528.170976923511</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-1.197618443360327</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="B116" t="n">
-        <v>16851.30346863184</v>
+        <v>17235.01415799214</v>
       </c>
       <c r="C116" t="n">
-        <v>21192130005.60365</v>
+        <v>22674029585.25386</v>
       </c>
       <c r="D116" t="n">
-        <v>324178677956.7833</v>
+        <v>331389860355.5909</v>
       </c>
       <c r="E116" t="n">
-        <v>528.1709769236519</v>
+        <v>413.780544975273</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2.224446852660966</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44904</v>
+        <v>44905</v>
       </c>
       <c r="B117" t="n">
-        <v>17235.01415799214</v>
+        <v>17149.82420392533</v>
       </c>
       <c r="C117" t="n">
-        <v>22674029585.25386</v>
+        <v>23179829829.17014</v>
       </c>
       <c r="D117" t="n">
-        <v>331389860355.5909</v>
+        <v>329756788298.6587</v>
       </c>
       <c r="E117" t="n">
-        <v>413.7805449754547</v>
+        <v>379.9305057306852</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.4927948173127361</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44905</v>
+        <v>44906</v>
       </c>
       <c r="B118" t="n">
-        <v>17149.82420392533</v>
+        <v>17125.36492768895</v>
       </c>
       <c r="C118" t="n">
-        <v>23179829829.17014</v>
+        <v>14234368489.84426</v>
       </c>
       <c r="D118" t="n">
-        <v>329756788298.6587</v>
+        <v>329283186564.5152</v>
       </c>
       <c r="E118" t="n">
-        <v>379.9305057308805</v>
+        <v>352.4466078883221</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.1436215268188934</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44906</v>
+        <v>44907</v>
       </c>
       <c r="B119" t="n">
-        <v>17125.36492768895</v>
+        <v>17101.03801973293</v>
       </c>
       <c r="C119" t="n">
-        <v>14234368489.84426</v>
+        <v>15681124918.73819</v>
       </c>
       <c r="D119" t="n">
-        <v>329283186564.5152</v>
+        <v>328868814164.9907</v>
       </c>
       <c r="E119" t="n">
-        <v>352.4466078885337</v>
+        <v>353.1783117359345</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-0.1258407402600081</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="B120" t="n">
-        <v>17101.03801973293</v>
+        <v>17179.59603820349</v>
       </c>
       <c r="C120" t="n">
-        <v>15681124918.73819</v>
+        <v>21633829199.48911</v>
       </c>
       <c r="D120" t="n">
-        <v>328868814164.9907</v>
+        <v>330715694645.2433</v>
       </c>
       <c r="E120" t="n">
-        <v>353.1783117361455</v>
+        <v>362.4092460396688</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.5615857754533549</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="B121" t="n">
-        <v>17179.59603820349</v>
+        <v>17784.16289405326</v>
       </c>
       <c r="C121" t="n">
-        <v>21633829199.48911</v>
+        <v>28941242217.59175</v>
       </c>
       <c r="D121" t="n">
-        <v>330715694645.2433</v>
+        <v>342102502914.6898</v>
       </c>
       <c r="E121" t="n">
-        <v>362.4092460398737</v>
+        <v>400.9265203709442</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3.443080704609724</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="B122" t="n">
-        <v>17784.16289405326</v>
+        <v>17808.71617265881</v>
       </c>
       <c r="C122" t="n">
-        <v>28941242217.59175</v>
+        <v>27267536668.81149</v>
       </c>
       <c r="D122" t="n">
-        <v>342102502914.6898</v>
+        <v>342692750075.4062</v>
       </c>
       <c r="E122" t="n">
-        <v>400.9265203711263</v>
+        <v>440.5493770039361</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.1725351775235584</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="B123" t="n">
-        <v>17808.71617265881</v>
+        <v>17338.35812663263</v>
       </c>
       <c r="C123" t="n">
-        <v>27267536668.81149</v>
+        <v>22754686787.8171</v>
       </c>
       <c r="D123" t="n">
-        <v>342692750075.4062</v>
+        <v>333854506370.7365</v>
       </c>
       <c r="E123" t="n">
-        <v>440.5493770040993</v>
+        <v>450.12205384864</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-2.579057684390729</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44911</v>
+        <v>44912</v>
       </c>
       <c r="B124" t="n">
-        <v>17338.35812663263</v>
+        <v>16623.75782614431</v>
       </c>
       <c r="C124" t="n">
-        <v>22754686787.8171</v>
+        <v>22250411214.77322</v>
       </c>
       <c r="D124" t="n">
-        <v>333854506370.7365</v>
+        <v>318992400741.9651</v>
       </c>
       <c r="E124" t="n">
-        <v>450.1220538487987</v>
+        <v>451.0672830579645</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-4.451671415292324</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44912</v>
+        <v>44913</v>
       </c>
       <c r="B125" t="n">
-        <v>16623.75782614431</v>
+        <v>16806.48559206152</v>
       </c>
       <c r="C125" t="n">
-        <v>22250411214.77322</v>
+        <v>15086383815.77611</v>
       </c>
       <c r="D125" t="n">
-        <v>318992400741.9651</v>
+        <v>323096167353.6004</v>
       </c>
       <c r="E125" t="n">
-        <v>451.0672830581231</v>
+        <v>450.5097829500586</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.286477860315816</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44913</v>
+        <v>44914</v>
       </c>
       <c r="B126" t="n">
-        <v>16806.48559206152</v>
+        <v>16742.81666383406</v>
       </c>
       <c r="C126" t="n">
-        <v>15086383815.77611</v>
+        <v>11134054723.14748</v>
       </c>
       <c r="D126" t="n">
-        <v>323096167353.6004</v>
+        <v>322740705484.6725</v>
       </c>
       <c r="E126" t="n">
-        <v>450.5097829502172</v>
+        <v>450.1746677075882</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-0.1100173585590225</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="B127" t="n">
-        <v>16742.81666383406</v>
+        <v>16422.5622732793</v>
       </c>
       <c r="C127" t="n">
-        <v>11134054723.14748</v>
+        <v>17719672544.8918</v>
       </c>
       <c r="D127" t="n">
-        <v>322740705484.6725</v>
+        <v>316270478163.6547</v>
       </c>
       <c r="E127" t="n">
-        <v>450.1746677077468</v>
+        <v>456.2527004531965</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-2.004775725857477</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B128" t="n">
-        <v>16422.5622732793</v>
+        <v>16899.33196904676</v>
       </c>
       <c r="C128" t="n">
-        <v>17719672544.8918</v>
+        <v>24938219697.88603</v>
       </c>
       <c r="D128" t="n">
-        <v>316270478163.6547</v>
+        <v>325120443529.5187</v>
       </c>
       <c r="E128" t="n">
-        <v>456.2527004533535</v>
+        <v>445.0326678834282</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2.79822682700237</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="B129" t="n">
-        <v>16899.33196904676</v>
+        <v>16816.85370118997</v>
       </c>
       <c r="C129" t="n">
-        <v>24938219697.88603</v>
+        <v>16062767787.35807</v>
       </c>
       <c r="D129" t="n">
-        <v>325120443529.5187</v>
+        <v>323127932459.1902</v>
       </c>
       <c r="E129" t="n">
-        <v>445.0326678835879</v>
+        <v>399.2496728556224</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-0.6128532087055882</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="B130" t="n">
-        <v>16816.85370118997</v>
+        <v>16824.7901624415</v>
       </c>
       <c r="C130" t="n">
-        <v>16062767787.35807</v>
+        <v>17847826941.68105</v>
       </c>
       <c r="D130" t="n">
-        <v>323127932459.1902</v>
+        <v>323519254392.6745</v>
       </c>
       <c r="E130" t="n">
-        <v>399.2496728557979</v>
+        <v>375.7653086283876</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.1211043349010676</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44918</v>
+        <v>44919</v>
       </c>
       <c r="B131" t="n">
-        <v>16824.7901624415</v>
+        <v>16791.45543916491</v>
       </c>
       <c r="C131" t="n">
-        <v>17847826941.68105</v>
+        <v>16765392449.95089</v>
       </c>
       <c r="D131" t="n">
-        <v>323519254392.6745</v>
+        <v>323013370317.2426</v>
       </c>
       <c r="E131" t="n">
-        <v>375.7653086285725</v>
+        <v>372.1033400545896</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-0.1563690780573834</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44919</v>
+        <v>44920</v>
       </c>
       <c r="B132" t="n">
-        <v>16791.45543916491</v>
+        <v>16848.56870832342</v>
       </c>
       <c r="C132" t="n">
-        <v>16765392449.95089</v>
+        <v>10169853734.11749</v>
       </c>
       <c r="D132" t="n">
-        <v>323013370317.2426</v>
+        <v>324072643385.913</v>
       </c>
       <c r="E132" t="n">
-        <v>372.1033400547759</v>
+        <v>367.365394880602</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.3279347438869262</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44920</v>
+        <v>44921</v>
       </c>
       <c r="B133" t="n">
-        <v>16848.56870832342</v>
+        <v>16842.1770399055</v>
       </c>
       <c r="C133" t="n">
-        <v>10169853734.11749</v>
+        <v>12574453968.75801</v>
       </c>
       <c r="D133" t="n">
-        <v>324072643385.913</v>
+        <v>323868581953.1157</v>
       </c>
       <c r="E133" t="n">
-        <v>367.3653948807898</v>
+        <v>359.8425637838355</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.06296780581822592</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44921</v>
+        <v>44922</v>
       </c>
       <c r="B134" t="n">
-        <v>16842.1770399055</v>
+        <v>16900.08187193808</v>
       </c>
       <c r="C134" t="n">
-        <v>12574453968.75801</v>
+        <v>12574997282.03929</v>
       </c>
       <c r="D134" t="n">
-        <v>323868581953.1157</v>
+        <v>325036912914.6697</v>
       </c>
       <c r="E134" t="n">
-        <v>359.8425637840263</v>
+        <v>348.2749862899109</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.3607422969243324</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="B135" t="n">
-        <v>16900.08187193808</v>
+        <v>16701.84021066794</v>
       </c>
       <c r="C135" t="n">
-        <v>12574997282.03929</v>
+        <v>17436062121.5136</v>
       </c>
       <c r="D135" t="n">
-        <v>325036912914.6697</v>
+        <v>321351469136.8621</v>
       </c>
       <c r="E135" t="n">
-        <v>348.2749862901067</v>
+        <v>339.1045606115976</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-1.13385391977775</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="B136" t="n">
-        <v>16701.84021066794</v>
+        <v>16538.90609400198</v>
       </c>
       <c r="C136" t="n">
-        <v>17436062121.5136</v>
+        <v>19113614755.87469</v>
       </c>
       <c r="D136" t="n">
-        <v>321351469136.8621</v>
+        <v>318288869204.8146</v>
       </c>
       <c r="E136" t="n">
-        <v>339.1045606117979</v>
+        <v>319.6806484362843</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-0.9530374764657235</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="B137" t="n">
-        <v>16538.90609400198</v>
+        <v>16644.37908703791</v>
       </c>
       <c r="C137" t="n">
-        <v>19113614755.87469</v>
+        <v>15683731676.99815</v>
       </c>
       <c r="D137" t="n">
-        <v>318288869204.8146</v>
+        <v>320297298175.877</v>
       </c>
       <c r="E137" t="n">
-        <v>319.6806484364955</v>
+        <v>310.1078906742868</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.6310082335206912</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44925</v>
+        <v>44926</v>
       </c>
       <c r="B138" t="n">
-        <v>16644.37908703791</v>
+        <v>16604.02052037339</v>
       </c>
       <c r="C138" t="n">
-        <v>15683731676.99815</v>
+        <v>17497327983.34934</v>
       </c>
       <c r="D138" t="n">
-        <v>320297298175.877</v>
+        <v>319722045805.0953</v>
       </c>
       <c r="E138" t="n">
-        <v>310.1078906745036</v>
+        <v>314.8319136636098</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-0.179599507725392</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44926</v>
+        <v>44927</v>
       </c>
       <c r="B139" t="n">
-        <v>16604.02052037339</v>
+        <v>16540.6936247768</v>
       </c>
       <c r="C139" t="n">
-        <v>17497327983.34934</v>
+        <v>12013247678.02959</v>
       </c>
       <c r="D139" t="n">
-        <v>319722045805.0953</v>
+        <v>318278329991.7019</v>
       </c>
       <c r="E139" t="n">
-        <v>314.831913663826</v>
+        <v>323.9339649562577</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-0.4515534140781541</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44927</v>
+        <v>44928</v>
       </c>
       <c r="B140" t="n">
-        <v>16540.6936247768</v>
+        <v>16615.96931801282</v>
       </c>
       <c r="C140" t="n">
-        <v>12013247678.02959</v>
+        <v>9799252684.089952</v>
       </c>
       <c r="D140" t="n">
-        <v>318278329991.7019</v>
+        <v>319832024054.6308</v>
       </c>
       <c r="E140" t="n">
-        <v>323.9339649564695</v>
+        <v>328.2186190035565</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.4881557795560321</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44928</v>
+        <v>44929</v>
       </c>
       <c r="B141" t="n">
-        <v>16615.96931801282</v>
+        <v>16674.3425363011</v>
       </c>
       <c r="C141" t="n">
-        <v>9799252684.089952</v>
+        <v>13023861027.76947</v>
       </c>
       <c r="D141" t="n">
-        <v>319832024054.6308</v>
+        <v>321486454934.2678</v>
       </c>
       <c r="E141" t="n">
-        <v>328.2186190037677</v>
+        <v>331.4989213795801</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.5172811836235525</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44929</v>
+        <v>44930</v>
       </c>
       <c r="B142" t="n">
-        <v>16674.3425363011</v>
+        <v>16677.64618585035</v>
       </c>
       <c r="C142" t="n">
-        <v>13023861027.76947</v>
+        <v>15367167883.49503</v>
       </c>
       <c r="D142" t="n">
-        <v>321486454934.2678</v>
+        <v>321080820418.184</v>
       </c>
       <c r="E142" t="n">
-        <v>331.4989213797903</v>
+        <v>331.4523227835177</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-0.1261746832123101</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="B143" t="n">
-        <v>16677.64618585035</v>
+        <v>16855.1747387671</v>
       </c>
       <c r="C143" t="n">
-        <v>15367167883.49503</v>
+        <v>20836560771.72363</v>
       </c>
       <c r="D143" t="n">
-        <v>321080820418.184</v>
+        <v>324397588037.3948</v>
       </c>
       <c r="E143" t="n">
-        <v>331.4523227837302</v>
+        <v>331.3136535720016</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.033000854704125</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44931</v>
+        <v>44932</v>
       </c>
       <c r="B144" t="n">
-        <v>16855.1747387671</v>
+        <v>16832.09898849786</v>
       </c>
       <c r="C144" t="n">
-        <v>20836560771.72363</v>
+        <v>14919039445.1069</v>
       </c>
       <c r="D144" t="n">
-        <v>324397588037.3948</v>
+        <v>324138957221.0557</v>
       </c>
       <c r="E144" t="n">
-        <v>331.3136535722147</v>
+        <v>329.6717070276588</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-0.07972649177320212</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44932</v>
+        <v>44933</v>
       </c>
       <c r="B145" t="n">
-        <v>16832.09898849786</v>
+        <v>16960.23206247515</v>
       </c>
       <c r="C145" t="n">
-        <v>14919039445.1069</v>
+        <v>19046576249.72856</v>
       </c>
       <c r="D145" t="n">
-        <v>324138957221.0557</v>
+        <v>326571439011.6566</v>
       </c>
       <c r="E145" t="n">
-        <v>329.6717070278742</v>
+        <v>329.8012796224057</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.7504441340390855</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44933</v>
+        <v>44934</v>
       </c>
       <c r="B146" t="n">
-        <v>16960.23206247515</v>
+        <v>16950.86152185391</v>
       </c>
       <c r="C146" t="n">
-        <v>19046576249.72856</v>
+        <v>9594456673.448975</v>
       </c>
       <c r="D146" t="n">
-        <v>326571439011.6566</v>
+        <v>326371741274.4109</v>
       </c>
       <c r="E146" t="n">
-        <v>329.8012796226205</v>
+        <v>323.7604462847253</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-0.06114978635303192</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44934</v>
+        <v>44935</v>
       </c>
       <c r="B147" t="n">
-        <v>16950.86152185391</v>
+        <v>17074.61539572674</v>
       </c>
       <c r="C147" t="n">
-        <v>9594456673.448975</v>
+        <v>11841041542.9937</v>
       </c>
       <c r="D147" t="n">
-        <v>326371741274.4109</v>
+        <v>328470896861.3785</v>
       </c>
       <c r="E147" t="n">
-        <v>323.7604462849454</v>
+        <v>321.9391044655882</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.643179332490873</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="B148" t="n">
-        <v>17074.61539572674</v>
+        <v>17194.90932945318</v>
       </c>
       <c r="C148" t="n">
-        <v>11841041542.9937</v>
+        <v>25532751567.19817</v>
       </c>
       <c r="D148" t="n">
-        <v>328470896861.3785</v>
+        <v>331158152699.2557</v>
       </c>
       <c r="E148" t="n">
-        <v>321.9391044658099</v>
+        <v>323.9792038570653</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.8181107865429249</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="B149" t="n">
-        <v>17194.90932945318</v>
+        <v>17436.90232978116</v>
       </c>
       <c r="C149" t="n">
-        <v>25532751567.19817</v>
+        <v>21858206845.29233</v>
       </c>
       <c r="D149" t="n">
-        <v>331158152699.2557</v>
+        <v>335743942932.3494</v>
       </c>
       <c r="E149" t="n">
-        <v>323.9792038572853</v>
+        <v>337.1808540966029</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1.384773467213507</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="B150" t="n">
-        <v>17436.90232978116</v>
+        <v>17996.83255374161</v>
       </c>
       <c r="C150" t="n">
-        <v>21858206845.29233</v>
+        <v>25439279072.98185</v>
       </c>
       <c r="D150" t="n">
-        <v>335743942932.3494</v>
+        <v>345688973386.6901</v>
       </c>
       <c r="E150" t="n">
-        <v>337.1808540968128</v>
+        <v>389.665206545102</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2.962087824275206</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="B151" t="n">
-        <v>17996.83255374161</v>
+        <v>18866.81033061705</v>
       </c>
       <c r="C151" t="n">
-        <v>25439279072.98185</v>
+        <v>48025109150.17737</v>
       </c>
       <c r="D151" t="n">
-        <v>345688973386.6901</v>
+        <v>363381125082.7658</v>
       </c>
       <c r="E151" t="n">
-        <v>389.6652065452802</v>
+        <v>505.0352955984836</v>
+      </c>
+      <c r="F151" t="n">
+        <v>5.117939262784987</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44939</v>
+        <v>44940</v>
       </c>
       <c r="B152" t="n">
-        <v>18866.81033061705</v>
+        <v>19941.7805432963</v>
       </c>
       <c r="C152" t="n">
-        <v>48025109150.17737</v>
+        <v>39514419053.17687</v>
       </c>
       <c r="D152" t="n">
-        <v>363381125082.7658</v>
+        <v>382675302196.4898</v>
       </c>
       <c r="E152" t="n">
-        <v>505.0352955986173</v>
+        <v>728.9863498038375</v>
+      </c>
+      <c r="F152" t="n">
+        <v>5.309625564434439</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44940</v>
+        <v>44941</v>
       </c>
       <c r="B153" t="n">
-        <v>19941.7805432963</v>
+        <v>21019.20661402266</v>
       </c>
       <c r="C153" t="n">
-        <v>39514419053.17687</v>
+        <v>49498711311.53301</v>
       </c>
       <c r="D153" t="n">
-        <v>382675302196.4898</v>
+        <v>405209898132.0056</v>
       </c>
       <c r="E153" t="n">
-        <v>728.9863498039248</v>
+        <v>1029.935755411853</v>
+      </c>
+      <c r="F153" t="n">
+        <v>5.888698801874881</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44941</v>
+        <v>44942</v>
       </c>
       <c r="B154" t="n">
-        <v>21019.20661402266</v>
+        <v>20853.23056949025</v>
       </c>
       <c r="C154" t="n">
-        <v>49498711311.53301</v>
+        <v>23072133987.55368</v>
       </c>
       <c r="D154" t="n">
-        <v>405209898132.0056</v>
+        <v>401697403586.5178</v>
       </c>
       <c r="E154" t="n">
-        <v>1029.935755411909</v>
+        <v>1225.614141259115</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-0.8668333527093508</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="B155" t="n">
-        <v>20853.23056949025</v>
+        <v>21175.33773662521</v>
       </c>
       <c r="C155" t="n">
-        <v>23072133987.55368</v>
+        <v>34809391745.54498</v>
       </c>
       <c r="D155" t="n">
-        <v>401697403586.5178</v>
+        <v>407760358639.0028</v>
       </c>
       <c r="E155" t="n">
-        <v>1225.614141259156</v>
+        <v>1410.997044793148</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1.509333891220721</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="B156" t="n">
-        <v>21175.33773662521</v>
+        <v>21156.78393116713</v>
       </c>
       <c r="C156" t="n">
-        <v>34809391745.54498</v>
+        <v>33278841336.50859</v>
       </c>
       <c r="D156" t="n">
-        <v>407760358639.0028</v>
+        <v>407405144842.9396</v>
       </c>
       <c r="E156" t="n">
-        <v>1410.997044793178</v>
+        <v>1558.09758912171</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-0.08711337150302256</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="B157" t="n">
-        <v>21156.78393116713</v>
+        <v>20726.84496942645</v>
       </c>
       <c r="C157" t="n">
-        <v>33278841336.50859</v>
+        <v>40612056908.80891</v>
       </c>
       <c r="D157" t="n">
-        <v>407405144842.9396</v>
+        <v>399349603616.1453</v>
       </c>
       <c r="E157" t="n">
-        <v>1558.097589121733</v>
+        <v>1642.891030651198</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-1.977280191171826</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="B158" t="n">
-        <v>20726.84496942645</v>
+        <v>21081.67102220433</v>
       </c>
       <c r="C158" t="n">
-        <v>40612056908.80891</v>
+        <v>29144534677.57505</v>
       </c>
       <c r="D158" t="n">
-        <v>399349603616.1453</v>
+        <v>406258441952.3726</v>
       </c>
       <c r="E158" t="n">
-        <v>1642.891030651215</v>
+        <v>1744.121012531431</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1.730022585140234</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44946</v>
+        <v>44947</v>
       </c>
       <c r="B159" t="n">
-        <v>21081.67102220433</v>
+        <v>22705.83367889906</v>
       </c>
       <c r="C159" t="n">
-        <v>29144534677.57505</v>
+        <v>41321936668.62795</v>
       </c>
       <c r="D159" t="n">
-        <v>406258441952.3726</v>
+        <v>436724993652.4275</v>
       </c>
       <c r="E159" t="n">
-        <v>1744.121012531442</v>
+        <v>1941.55358003561</v>
+      </c>
+      <c r="F159" t="n">
+        <v>7.499303043067984</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44947</v>
+        <v>44948</v>
       </c>
       <c r="B160" t="n">
-        <v>22705.83367889906</v>
+        <v>22771.02328702178</v>
       </c>
       <c r="C160" t="n">
-        <v>41321936668.62795</v>
+        <v>44077026803.66082</v>
       </c>
       <c r="D160" t="n">
-        <v>436724993652.4275</v>
+        <v>438578588179.0604</v>
       </c>
       <c r="E160" t="n">
-        <v>1941.553580035615</v>
+        <v>2106.77009025802</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.4244306036004231</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44948</v>
+        <v>44949</v>
       </c>
       <c r="B161" t="n">
-        <v>22771.02328702178</v>
+        <v>22736.66142892971</v>
       </c>
       <c r="C161" t="n">
-        <v>44077026803.66082</v>
+        <v>34124364415.43915</v>
       </c>
       <c r="D161" t="n">
-        <v>438578588179.0604</v>
+        <v>438060367560.3554</v>
       </c>
       <c r="E161" t="n">
-        <v>2106.770090258019</v>
+        <v>2238.766473807756</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-0.1181591241963376</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44949</v>
+        <v>44950</v>
       </c>
       <c r="B162" t="n">
-        <v>22736.66142892971</v>
+        <v>22984.87497643721</v>
       </c>
       <c r="C162" t="n">
-        <v>34124364415.43915</v>
+        <v>36750647385.65293</v>
       </c>
       <c r="D162" t="n">
-        <v>438060367560.3554</v>
+        <v>442926343072.5923</v>
       </c>
       <c r="E162" t="n">
-        <v>2238.76647380775</v>
+        <v>2362.943160303201</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1.110800216722763</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="B163" t="n">
-        <v>22984.87497643721</v>
+        <v>22610.01059827285</v>
       </c>
       <c r="C163" t="n">
-        <v>36750647385.65293</v>
+        <v>35621897292.95152</v>
       </c>
       <c r="D163" t="n">
-        <v>442926343072.5923</v>
+        <v>435679436196.3577</v>
       </c>
       <c r="E163" t="n">
-        <v>2362.94316030319</v>
+        <v>2442.511698031274</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-1.636142665609519</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44951</v>
+        <v>44952</v>
       </c>
       <c r="B164" t="n">
-        <v>22610.01059827285</v>
+        <v>23180.42269787426</v>
       </c>
       <c r="C164" t="n">
-        <v>35621897292.95152</v>
+        <v>42772537174.72366</v>
       </c>
       <c r="D164" t="n">
-        <v>435679436196.3577</v>
+        <v>446715261348.7517</v>
       </c>
       <c r="E164" t="n">
-        <v>2442.511698031258</v>
+        <v>2536.000601441572</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2.53301492692446</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44952</v>
+        <v>44953</v>
       </c>
       <c r="B165" t="n">
-        <v>23180.42269787426</v>
+        <v>23024.74618081709</v>
       </c>
       <c r="C165" t="n">
-        <v>42772537174.72366</v>
+        <v>37099702812.22777</v>
       </c>
       <c r="D165" t="n">
-        <v>446715261348.7517</v>
+        <v>444005849172.139</v>
       </c>
       <c r="E165" t="n">
-        <v>2536.000601441551</v>
+        <v>2594.441610249473</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-0.6065188300109159</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="B166" t="n">
-        <v>23024.74618081709</v>
+        <v>23082.85838212295</v>
       </c>
       <c r="C166" t="n">
-        <v>37099702812.22777</v>
+        <v>36109035905.25896</v>
       </c>
       <c r="D166" t="n">
-        <v>444005849172.139</v>
+        <v>444898315874.0554</v>
       </c>
       <c r="E166" t="n">
-        <v>2594.441610249448</v>
+        <v>2630.779769965799</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.2010033659647359</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44954</v>
+        <v>44955</v>
       </c>
       <c r="B167" t="n">
-        <v>23082.85838212295</v>
+        <v>23022.23299135344</v>
       </c>
       <c r="C167" t="n">
-        <v>36109035905.25896</v>
+        <v>19567219823.87809</v>
       </c>
       <c r="D167" t="n">
-        <v>444898315874.0554</v>
+        <v>443702765526.1165</v>
       </c>
       <c r="E167" t="n">
-        <v>2630.779769965769</v>
+        <v>2649.753355432229</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-0.2687244040450287</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44955</v>
+        <v>44956</v>
       </c>
       <c r="B168" t="n">
-        <v>23022.23299135344</v>
+        <v>23797.46089488124</v>
       </c>
       <c r="C168" t="n">
-        <v>19567219823.87809</v>
+        <v>38438621263.58117</v>
       </c>
       <c r="D168" t="n">
-        <v>443702765526.1165</v>
+        <v>458368002025.743</v>
       </c>
       <c r="E168" t="n">
-        <v>2649.753355432195</v>
+        <v>2684.076735039975</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3.305193845757848</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44956</v>
+        <v>44957</v>
       </c>
       <c r="B169" t="n">
-        <v>23797.46089488124</v>
+        <v>22840.3858587971</v>
       </c>
       <c r="C169" t="n">
-        <v>38438621263.58117</v>
+        <v>38594596831.97205</v>
       </c>
       <c r="D169" t="n">
-        <v>458368002025.743</v>
+        <v>439295730927.1647</v>
       </c>
       <c r="E169" t="n">
-        <v>2684.076735039937</v>
+        <v>2654.285222372701</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-4.160908050799561</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="B170" t="n">
-        <v>22840.3858587971</v>
+        <v>23137.32355408838</v>
       </c>
       <c r="C170" t="n">
-        <v>38594596831.97205</v>
+        <v>32683643418.32948</v>
       </c>
       <c r="D170" t="n">
-        <v>439295730927.1647</v>
+        <v>445991168199.3282</v>
       </c>
       <c r="E170" t="n">
-        <v>2654.285222372658</v>
+        <v>2620.723817719964</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1.524129828904153</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="B171" t="n">
-        <v>23137.32355408838</v>
+        <v>23725.16179614224</v>
       </c>
       <c r="C171" t="n">
-        <v>32683643418.32948</v>
+        <v>37452064508.17389</v>
       </c>
       <c r="D171" t="n">
-        <v>445991168199.3282</v>
+        <v>457383099382.75</v>
       </c>
       <c r="E171" t="n">
-        <v>2620.723817719916</v>
+        <v>2593.049056565195</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2.554295240736781</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="B172" t="n">
-        <v>23725.16179614224</v>
+        <v>23539.67677019653</v>
       </c>
       <c r="C172" t="n">
-        <v>37452064508.17389</v>
+        <v>44735297656.69828</v>
       </c>
       <c r="D172" t="n">
-        <v>457383099382.75</v>
+        <v>453565018922.5452</v>
       </c>
       <c r="E172" t="n">
-        <v>2593.049056565141</v>
+        <v>2535.869228918806</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-0.8347664059641491</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44960</v>
+        <v>44961</v>
       </c>
       <c r="B173" t="n">
-        <v>23539.67677019653</v>
+        <v>23451.57765077463</v>
       </c>
       <c r="C173" t="n">
-        <v>44735297656.69828</v>
+        <v>41267040610.76361</v>
       </c>
       <c r="D173" t="n">
-        <v>453565018922.5452</v>
+        <v>452312595756.257</v>
       </c>
       <c r="E173" t="n">
-        <v>2535.869228918746</v>
+        <v>2463.130837267008</v>
+      </c>
+      <c r="F173" t="n">
+        <v>-0.2761286946827091</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44961</v>
+        <v>44962</v>
       </c>
       <c r="B174" t="n">
-        <v>23451.57765077463</v>
+        <v>23340.34958553934</v>
       </c>
       <c r="C174" t="n">
-        <v>41267040610.76361</v>
+        <v>21063097082.25782</v>
       </c>
       <c r="D174" t="n">
-        <v>452312595756.257</v>
+        <v>450197147854.798</v>
       </c>
       <c r="E174" t="n">
-        <v>2463.13083726694</v>
+        <v>2362.219336946089</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-0.4676959963765714</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44962</v>
+        <v>44963</v>
       </c>
       <c r="B175" t="n">
-        <v>23340.34958553934</v>
+        <v>22946.28657859123</v>
       </c>
       <c r="C175" t="n">
-        <v>21063097082.25782</v>
+        <v>26678691424.5499</v>
       </c>
       <c r="D175" t="n">
-        <v>450197147854.798</v>
+        <v>442933975658.5659</v>
       </c>
       <c r="E175" t="n">
-        <v>2362.219336946013</v>
+        <v>2234.134509436982</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-1.613331455083922</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44963</v>
+        <v>44964</v>
       </c>
       <c r="B176" t="n">
-        <v>22946.28657859123</v>
+        <v>22786.48300638773</v>
       </c>
       <c r="C176" t="n">
-        <v>26678691424.5499</v>
+        <v>33963650031.47035</v>
       </c>
       <c r="D176" t="n">
-        <v>442933975658.5659</v>
+        <v>438726385719.1618</v>
       </c>
       <c r="E176" t="n">
-        <v>2234.134509436897</v>
+        <v>2074.630315577881</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-0.9499361463857214</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B177" t="n">
-        <v>22786.48300638773</v>
+        <v>23294.9136483527</v>
       </c>
       <c r="C177" t="n">
-        <v>33963650031.47035</v>
+        <v>38850594358.69947</v>
       </c>
       <c r="D177" t="n">
-        <v>438726385719.1618</v>
+        <v>449391195299.2034</v>
       </c>
       <c r="E177" t="n">
-        <v>2074.630315577784</v>
+        <v>1902.872389167571</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2.430856663102166</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="B178" t="n">
-        <v>23294.9136483527</v>
+        <v>22947.50782856846</v>
       </c>
       <c r="C178" t="n">
-        <v>38850594358.69947</v>
+        <v>34247782005.79332</v>
       </c>
       <c r="D178" t="n">
-        <v>449391195299.2034</v>
+        <v>442518382691.6548</v>
       </c>
       <c r="E178" t="n">
-        <v>1902.872389167459</v>
+        <v>1692.602866879551</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-1.529360761724008</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="B179" t="n">
-        <v>22947.50782856846</v>
+        <v>21820.88650809278</v>
       </c>
       <c r="C179" t="n">
-        <v>34247782005.79332</v>
+        <v>51161546272.35185</v>
       </c>
       <c r="D179" t="n">
-        <v>442518382691.6548</v>
+        <v>420790678627.7739</v>
       </c>
       <c r="E179" t="n">
-        <v>1692.602866879419</v>
+        <v>1450.497173469432</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-4.910011631996025</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44967</v>
+        <v>44968</v>
       </c>
       <c r="B180" t="n">
-        <v>21820.88650809278</v>
+        <v>21630.1329795763</v>
       </c>
       <c r="C180" t="n">
-        <v>51161546272.35185</v>
+        <v>42389972640.44812</v>
       </c>
       <c r="D180" t="n">
-        <v>420790678627.7739</v>
+        <v>417351358181.0193</v>
       </c>
       <c r="E180" t="n">
-        <v>1450.497173469273</v>
+        <v>1219.0375689661</v>
+      </c>
+      <c r="F180" t="n">
+        <v>-0.8173471090116569</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44968</v>
+        <v>44969</v>
       </c>
       <c r="B181" t="n">
-        <v>21630.1329795763</v>
+        <v>21889.43208004962</v>
       </c>
       <c r="C181" t="n">
-        <v>42389972640.44812</v>
+        <v>23574706405.83854</v>
       </c>
       <c r="D181" t="n">
-        <v>417351358181.0193</v>
+        <v>422107650473.7795</v>
       </c>
       <c r="E181" t="n">
-        <v>1219.037568965905</v>
+        <v>1032.760875996818</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1.139637430075724</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44969</v>
+        <v>44970</v>
       </c>
       <c r="B182" t="n">
-        <v>21889.43208004962</v>
+        <v>21779.87440384417</v>
       </c>
       <c r="C182" t="n">
-        <v>23574706405.83854</v>
+        <v>25877166000.55028</v>
       </c>
       <c r="D182" t="n">
-        <v>422107650473.7795</v>
+        <v>420218240428.1313</v>
       </c>
       <c r="E182" t="n">
-        <v>1032.760875996582</v>
+        <v>928.675662805837</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-0.4476133146432137</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="B183" t="n">
-        <v>21779.87440384417</v>
+        <v>21807.83427472306</v>
       </c>
       <c r="C183" t="n">
-        <v>25877166000.55028</v>
+        <v>36761909546.14395</v>
       </c>
       <c r="D183" t="n">
-        <v>420218240428.1313</v>
+        <v>420838871938.8273</v>
       </c>
       <c r="E183" t="n">
-        <v>928.6756628055705</v>
+        <v>895.8374485556077</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.1476926632370201</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="B184" t="n">
-        <v>21807.83427472306</v>
+        <v>22220.07099748107</v>
       </c>
       <c r="C184" t="n">
-        <v>36761909546.14395</v>
+        <v>45363697019.73754</v>
       </c>
       <c r="D184" t="n">
-        <v>420838871938.8273</v>
+        <v>428649056117.7321</v>
       </c>
       <c r="E184" t="n">
-        <v>895.8374485553296</v>
+        <v>840.7754478725138</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1.85586092437775</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="B185" t="n">
-        <v>22220.07099748107</v>
+        <v>24307.8751016316</v>
       </c>
       <c r="C185" t="n">
-        <v>45363697019.73754</v>
+        <v>44336284482.19016</v>
       </c>
       <c r="D185" t="n">
-        <v>428649056117.7321</v>
+        <v>468820317786.9533</v>
       </c>
       <c r="E185" t="n">
-        <v>840.7754478722144</v>
+        <v>855.4951401436035</v>
+      </c>
+      <c r="F185" t="n">
+        <v>9.371596903315659</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="B186" t="n">
-        <v>24307.8751016316</v>
+        <v>23756.90728157743</v>
       </c>
       <c r="C186" t="n">
-        <v>44336284482.19016</v>
+        <v>48144978044.45546</v>
       </c>
       <c r="D186" t="n">
-        <v>468820317786.9533</v>
+        <v>459293697174.9459</v>
       </c>
       <c r="E186" t="n">
-        <v>855.4951401433019</v>
+        <v>827.2852640451169</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-2.032040901507293</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44974</v>
+        <v>44975</v>
       </c>
       <c r="B187" t="n">
-        <v>23756.90728157743</v>
+        <v>24628.82455217312</v>
       </c>
       <c r="C187" t="n">
-        <v>48144978044.45546</v>
+        <v>54200707340.94142</v>
       </c>
       <c r="D187" t="n">
-        <v>459293697174.9459</v>
+        <v>475194230168.0997</v>
       </c>
       <c r="E187" t="n">
-        <v>827.2852640447987</v>
+        <v>802.1646239982553</v>
+      </c>
+      <c r="F187" t="n">
+        <v>3.461953231876658</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44975</v>
+        <v>44976</v>
       </c>
       <c r="B188" t="n">
-        <v>24628.82455217312</v>
+        <v>24642.79087073843</v>
       </c>
       <c r="C188" t="n">
-        <v>54200707340.94142</v>
+        <v>24900444765.27695</v>
       </c>
       <c r="D188" t="n">
-        <v>475194230168.0997</v>
+        <v>475529620771.9494</v>
       </c>
       <c r="E188" t="n">
-        <v>802.1646239979182</v>
+        <v>787.9399651924317</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.07057968774810686</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44976</v>
+        <v>44977</v>
       </c>
       <c r="B189" t="n">
-        <v>24642.79087073843</v>
+        <v>24284.4780037147</v>
       </c>
       <c r="C189" t="n">
-        <v>24900444765.27695</v>
+        <v>33664683478.33256</v>
       </c>
       <c r="D189" t="n">
-        <v>475529620771.9494</v>
+        <v>470798520570.0436</v>
       </c>
       <c r="E189" t="n">
-        <v>787.9399651920799</v>
+        <v>818.7820587904519</v>
+      </c>
+      <c r="F189" t="n">
+        <v>-0.994911777362173</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44977</v>
+        <v>44978</v>
       </c>
       <c r="B190" t="n">
-        <v>24284.4780037147</v>
+        <v>24786.66594084571</v>
       </c>
       <c r="C190" t="n">
-        <v>33664683478.33256</v>
+        <v>38997046274.49725</v>
       </c>
       <c r="D190" t="n">
-        <v>470798520570.0436</v>
+        <v>478236525469.6496</v>
       </c>
       <c r="E190" t="n">
-        <v>818.7820587901095</v>
+        <v>874.5196215736842</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1.57987006641398</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B191" t="n">
-        <v>24786.66594084571</v>
+        <v>24417.38703630947</v>
       </c>
       <c r="C191" t="n">
-        <v>38997046274.49725</v>
+        <v>41991954878.4476</v>
       </c>
       <c r="D191" t="n">
-        <v>478236525469.6496</v>
+        <v>470623925511.1786</v>
       </c>
       <c r="E191" t="n">
-        <v>874.5196215733592</v>
+        <v>901.636616434468</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-1.591806470866075</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="B192" t="n">
-        <v>24417.38703630947</v>
+        <v>24146.10136454522</v>
       </c>
       <c r="C192" t="n">
-        <v>41991954878.4476</v>
+        <v>40336608135.49699</v>
       </c>
       <c r="D192" t="n">
-        <v>470623925511.1786</v>
+        <v>465998918250.2451</v>
       </c>
       <c r="E192" t="n">
-        <v>901.6366164341492</v>
+        <v>917.3376409563655</v>
+      </c>
+      <c r="F192" t="n">
+        <v>-0.9827395103021996</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44980</v>
+        <v>44981</v>
       </c>
       <c r="B193" t="n">
-        <v>24146.10136454522</v>
+        <v>23951.11098423326</v>
       </c>
       <c r="C193" t="n">
-        <v>40336608135.49699</v>
+        <v>42356618035.34962</v>
       </c>
       <c r="D193" t="n">
-        <v>465998918250.2451</v>
+        <v>461042830140.0772</v>
       </c>
       <c r="E193" t="n">
-        <v>917.3376409560499</v>
+        <v>918.8481094965294</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-1.063540689917752</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44981</v>
+        <v>44982</v>
       </c>
       <c r="B194" t="n">
-        <v>23951.11098423326</v>
+        <v>23172.28653801893</v>
       </c>
       <c r="C194" t="n">
-        <v>42356618035.34962</v>
+        <v>35081974267.07997</v>
       </c>
       <c r="D194" t="n">
-        <v>461042830140.0772</v>
+        <v>447316067422.0474</v>
       </c>
       <c r="E194" t="n">
-        <v>918.8481094962117</v>
+        <v>918.8775541164957</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-2.97732918086141</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44982</v>
+        <v>44983</v>
       </c>
       <c r="B195" t="n">
-        <v>23172.28653801893</v>
+        <v>23157.03810745952</v>
       </c>
       <c r="C195" t="n">
-        <v>35081974267.07997</v>
+        <v>22999909593.10942</v>
       </c>
       <c r="D195" t="n">
-        <v>447316067422.0474</v>
+        <v>447030240435.9985</v>
       </c>
       <c r="E195" t="n">
-        <v>918.877554116178</v>
+        <v>917.9637917916657</v>
+      </c>
+      <c r="F195" t="n">
+        <v>-0.06389821579539934</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44983</v>
+        <v>44984</v>
       </c>
       <c r="B196" t="n">
-        <v>23157.03810745952</v>
+        <v>23541.11585449356</v>
       </c>
       <c r="C196" t="n">
-        <v>22999909593.10942</v>
+        <v>24469102669.37105</v>
       </c>
       <c r="D196" t="n">
-        <v>447030240435.9985</v>
+        <v>454284528651.5023</v>
       </c>
       <c r="E196" t="n">
-        <v>917.9637917913474</v>
+        <v>918.4333712680134</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1.622773485844808</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B197" t="n">
-        <v>23541.11585449356</v>
+        <v>23518.12390627588</v>
       </c>
       <c r="C197" t="n">
-        <v>24469102669.37105</v>
+        <v>28832423816.47872</v>
       </c>
       <c r="D197" t="n">
-        <v>454284528651.5023</v>
+        <v>454364917718.867</v>
       </c>
       <c r="E197" t="n">
-        <v>918.4333712676944</v>
+        <v>917.8667247377323</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.01769575283652181</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="B198" t="n">
-        <v>23518.12390627588</v>
+        <v>23155.5437468258</v>
       </c>
       <c r="C198" t="n">
-        <v>28832423816.47872</v>
+        <v>25534054046.06684</v>
       </c>
       <c r="D198" t="n">
-        <v>454364917718.867</v>
+        <v>446010055987.8574</v>
       </c>
       <c r="E198" t="n">
-        <v>917.866724737412</v>
+        <v>913.5559829935163</v>
+      </c>
+      <c r="F198" t="n">
+        <v>-1.838799917246059</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B199" t="n">
-        <v>23155.5437468258</v>
+        <v>23634.33348912379</v>
       </c>
       <c r="C199" t="n">
-        <v>25534054046.06684</v>
+        <v>32507897259.08434</v>
       </c>
       <c r="D199" t="n">
-        <v>446010055987.8574</v>
+        <v>456417315966.7193</v>
       </c>
       <c r="E199" t="n">
-        <v>913.5559829931958</v>
+        <v>911.6556991433222</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2.333413751358404</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B200" t="n">
-        <v>23634.33348912379</v>
+        <v>23464.33654185282</v>
       </c>
       <c r="C200" t="n">
-        <v>32507897259.08434</v>
+        <v>27432755758.4402</v>
       </c>
       <c r="D200" t="n">
-        <v>456417315966.7193</v>
+        <v>453067155320.8529</v>
       </c>
       <c r="E200" t="n">
-        <v>911.6556991429992</v>
+        <v>911.426142213999</v>
+      </c>
+      <c r="F200" t="n">
+        <v>-0.7340126083451803</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="B201" t="n">
-        <v>23464.33654185282</v>
+        <v>22367.43302246967</v>
       </c>
       <c r="C201" t="n">
-        <v>27432755758.4402</v>
+        <v>34239649135.07021</v>
       </c>
       <c r="D201" t="n">
-        <v>453067155320.8529</v>
+        <v>431727585101.1504</v>
       </c>
       <c r="E201" t="n">
-        <v>911.4261422136752</v>
+        <v>924.4783317214458</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-4.710023661854335</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="B202" t="n">
-        <v>22367.43302246967</v>
+        <v>22348.32991538815</v>
       </c>
       <c r="C202" t="n">
-        <v>34239649135.07021</v>
+        <v>13392431931.93038</v>
       </c>
       <c r="D202" t="n">
-        <v>431727585101.1504</v>
+        <v>431837491811.4938</v>
       </c>
       <c r="E202" t="n">
-        <v>924.4783317211298</v>
+        <v>938.4030793277695</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.02545742133148732</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="B203" t="n">
-        <v>22348.32991538815</v>
+        <v>22421.88580585327</v>
       </c>
       <c r="C203" t="n">
-        <v>13392431931.93038</v>
+        <v>16080097920.16083</v>
       </c>
       <c r="D203" t="n">
-        <v>431837491811.4938</v>
+        <v>433081135066.3954</v>
       </c>
       <c r="E203" t="n">
-        <v>938.4030793274612</v>
+        <v>949.1618987974565</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.28798871762723</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B204" t="n">
-        <v>22421.88580585327</v>
+        <v>22415.11365969483</v>
       </c>
       <c r="C204" t="n">
-        <v>16080097920.16083</v>
+        <v>21124920006.05771</v>
       </c>
       <c r="D204" t="n">
-        <v>433081135066.3954</v>
+        <v>432758824798.3097</v>
       </c>
       <c r="E204" t="n">
-        <v>949.1618987971541</v>
+        <v>959.605062757485</v>
+      </c>
+      <c r="F204" t="n">
+        <v>-0.07442260629437758</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B205" t="n">
-        <v>22415.11365969483</v>
+        <v>22217.20988490533</v>
       </c>
       <c r="C205" t="n">
-        <v>21124920006.05771</v>
+        <v>27780357943.16268</v>
       </c>
       <c r="D205" t="n">
-        <v>432758824798.3097</v>
+        <v>427994888566.5421</v>
       </c>
       <c r="E205" t="n">
-        <v>959.6050627571882</v>
+        <v>974.7027075645319</v>
+      </c>
+      <c r="F205" t="n">
+        <v>-1.100829367023981</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B206" t="n">
-        <v>22217.20988490533</v>
+        <v>21712.65119391273</v>
       </c>
       <c r="C206" t="n">
-        <v>27780357943.16268</v>
+        <v>28493032424.78311</v>
       </c>
       <c r="D206" t="n">
-        <v>427994888566.5421</v>
+        <v>419694984165.3824</v>
       </c>
       <c r="E206" t="n">
-        <v>974.7027075642412</v>
+        <v>1007.687118333773</v>
+      </c>
+      <c r="F206" t="n">
+        <v>-1.939253159998722</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B207" t="n">
-        <v>21712.65119391273</v>
+        <v>20376.32000742881</v>
       </c>
       <c r="C207" t="n">
-        <v>28493032424.78311</v>
+        <v>40173833477.66077</v>
       </c>
       <c r="D207" t="n">
-        <v>419694984165.3824</v>
+        <v>392841773384.4403</v>
       </c>
       <c r="E207" t="n">
-        <v>1007.687118333495</v>
+        <v>1123.868461541019</v>
+      </c>
+      <c r="F207" t="n">
+        <v>-6.398268217177561</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44995</v>
+        <v>44996</v>
       </c>
       <c r="B208" t="n">
-        <v>20376.32000742881</v>
+        <v>20195.2289502733</v>
       </c>
       <c r="C208" t="n">
-        <v>40173833477.66077</v>
+        <v>51593890225.48742</v>
       </c>
       <c r="D208" t="n">
-        <v>392841773384.4403</v>
+        <v>390202255053.3354</v>
       </c>
       <c r="E208" t="n">
-        <v>1123.868461540775</v>
+        <v>1236.459802387793</v>
+      </c>
+      <c r="F208" t="n">
+        <v>-0.671903679785546</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44996</v>
+        <v>44997</v>
       </c>
       <c r="B209" t="n">
-        <v>20195.2289502733</v>
+        <v>20521.55615175117</v>
       </c>
       <c r="C209" t="n">
-        <v>51593890225.48742</v>
+        <v>37746654239.61721</v>
       </c>
       <c r="D209" t="n">
-        <v>390202255053.3354</v>
+        <v>394742728281.9893</v>
       </c>
       <c r="E209" t="n">
-        <v>1236.459802387577</v>
+        <v>1297.72816629815</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1.163620448075875</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="B210" t="n">
-        <v>20521.55615175117</v>
+        <v>22095.71339833569</v>
       </c>
       <c r="C210" t="n">
-        <v>37746654239.61721</v>
+        <v>36639901908.82403</v>
       </c>
       <c r="D210" t="n">
-        <v>394742728281.9893</v>
+        <v>425816781283.9279</v>
       </c>
       <c r="E210" t="n">
-        <v>1297.728166297945</v>
+        <v>1284.958813402606</v>
+      </c>
+      <c r="F210" t="n">
+        <v>7.871976043024276</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B211" t="n">
-        <v>22095.71339833569</v>
+        <v>24178.95532797469</v>
       </c>
       <c r="C211" t="n">
-        <v>36639901908.82403</v>
+        <v>66799159801.95811</v>
       </c>
       <c r="D211" t="n">
-        <v>425816781283.9279</v>
+        <v>466509005562.7817</v>
       </c>
       <c r="E211" t="n">
-        <v>1284.958813402399</v>
+        <v>1290.981224425761</v>
+      </c>
+      <c r="F211" t="n">
+        <v>9.556275390593626</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B212" t="n">
-        <v>24178.95532797469</v>
+        <v>24758.76508582757</v>
       </c>
       <c r="C212" t="n">
-        <v>66799159801.95811</v>
+        <v>70714394276.37074</v>
       </c>
       <c r="D212" t="n">
-        <v>466509005562.7817</v>
+        <v>478406045309.6089</v>
       </c>
       <c r="E212" t="n">
-        <v>1290.981224425552</v>
+        <v>1310.374856998532</v>
+      </c>
+      <c r="F212" t="n">
+        <v>2.550227242124703</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B213" t="n">
-        <v>24758.76508582757</v>
+        <v>24470.88205445031</v>
       </c>
       <c r="C213" t="n">
-        <v>70714394276.37074</v>
+        <v>63107437928.81401</v>
       </c>
       <c r="D213" t="n">
-        <v>478406045309.6089</v>
+        <v>472833547484.0809</v>
       </c>
       <c r="E213" t="n">
-        <v>1310.37485699832</v>
+        <v>1311.885894298066</v>
+      </c>
+      <c r="F213" t="n">
+        <v>-1.16480506050497</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B214" t="n">
-        <v>24470.88205445031</v>
+        <v>25161.27201752005</v>
       </c>
       <c r="C214" t="n">
-        <v>63107437928.81401</v>
+        <v>60688056874.81415</v>
       </c>
       <c r="D214" t="n">
-        <v>472833547484.0809</v>
+        <v>486375597562.7987</v>
       </c>
       <c r="E214" t="n">
-        <v>1311.885894297849</v>
+        <v>1348.444941880331</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2.864020573576953</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45002</v>
+        <v>45003</v>
       </c>
       <c r="B215" t="n">
-        <v>25161.27201752005</v>
+        <v>27466.67782982986</v>
       </c>
       <c r="C215" t="n">
-        <v>60688056874.81415</v>
+        <v>64617615617.80156</v>
       </c>
       <c r="D215" t="n">
-        <v>486375597562.7987</v>
+        <v>530038219067.3334</v>
       </c>
       <c r="E215" t="n">
-        <v>1348.444941880116</v>
+        <v>1542.445336651261</v>
+      </c>
+      <c r="F215" t="n">
+        <v>8.97714065494355</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45003</v>
+        <v>45004</v>
       </c>
       <c r="B216" t="n">
-        <v>27466.67782982986</v>
+        <v>27107.79218350439</v>
       </c>
       <c r="C216" t="n">
-        <v>64617615617.80156</v>
+        <v>46473651090.57841</v>
       </c>
       <c r="D216" t="n">
-        <v>530038219067.3334</v>
+        <v>523262280970.1478</v>
       </c>
       <c r="E216" t="n">
-        <v>1542.445336651068</v>
+        <v>1686.378004148003</v>
+      </c>
+      <c r="F216" t="n">
+        <v>-1.278386699945655</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45004</v>
+        <v>45005</v>
       </c>
       <c r="B217" t="n">
-        <v>27107.79218350439</v>
+        <v>28186.84265236013</v>
       </c>
       <c r="C217" t="n">
-        <v>46473651090.57841</v>
+        <v>46394763656.03815</v>
       </c>
       <c r="D217" t="n">
-        <v>523262280970.1478</v>
+        <v>546680822196.2155</v>
       </c>
       <c r="E217" t="n">
-        <v>1686.378004147822</v>
+        <v>1883.730545626362</v>
+      </c>
+      <c r="F217" t="n">
+        <v>4.475488120918802</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45005</v>
+        <v>45006</v>
       </c>
       <c r="B218" t="n">
-        <v>28186.84265236013</v>
+        <v>27929.16773314029</v>
       </c>
       <c r="C218" t="n">
-        <v>46394763656.03815</v>
+        <v>55315948514.42699</v>
       </c>
       <c r="D218" t="n">
-        <v>546680822196.2155</v>
+        <v>538935400013.3555</v>
       </c>
       <c r="E218" t="n">
-        <v>1883.730545626196</v>
+        <v>2036.110829833511</v>
+      </c>
+      <c r="F218" t="n">
+        <v>-1.41680883403662</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="B219" t="n">
-        <v>27929.16773314029</v>
+        <v>28264.23961052235</v>
       </c>
       <c r="C219" t="n">
-        <v>55315948514.42699</v>
+        <v>34430928756.27183</v>
       </c>
       <c r="D219" t="n">
-        <v>538935400013.3555</v>
+        <v>545917428270.1058</v>
       </c>
       <c r="E219" t="n">
-        <v>2036.110829833353</v>
+        <v>2198.328952895462</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1.295522293873685</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="B220" t="n">
-        <v>28264.23961052235</v>
+        <v>27449.25483080736</v>
       </c>
       <c r="C220" t="n">
-        <v>34430928756.27183</v>
+        <v>35394833933.50181</v>
       </c>
       <c r="D220" t="n">
-        <v>545917428270.1058</v>
+        <v>530515158753.954</v>
       </c>
       <c r="E220" t="n">
-        <v>2198.328952895313</v>
+        <v>2289.795374850261</v>
+      </c>
+      <c r="F220" t="n">
+        <v>-2.821355157126659</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B221" t="n">
-        <v>27449.25483080736</v>
+        <v>28459.7351135525</v>
       </c>
       <c r="C221" t="n">
-        <v>35394833933.50181</v>
+        <v>20360807194.56342</v>
       </c>
       <c r="D221" t="n">
-        <v>530515158753.954</v>
+        <v>549578396178.6341</v>
       </c>
       <c r="E221" t="n">
-        <v>2289.795374850115</v>
+        <v>2434.055936758198</v>
+      </c>
+      <c r="F221" t="n">
+        <v>3.59334452750697</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="B222" t="n">
-        <v>28459.7351135525</v>
+        <v>27595.4947483755</v>
       </c>
       <c r="C222" t="n">
-        <v>20360807194.56342</v>
+        <v>21551272690.41361</v>
       </c>
       <c r="D222" t="n">
-        <v>549578396178.6341</v>
+        <v>533634255119.3758</v>
       </c>
       <c r="E222" t="n">
-        <v>2434.055936758057</v>
+        <v>2518.206586073899</v>
+      </c>
+      <c r="F222" t="n">
+        <v>-2.901158628163369</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="B223" t="n">
-        <v>27595.4947483755</v>
+        <v>27670.19949849683</v>
       </c>
       <c r="C223" t="n">
-        <v>21551272690.41361</v>
+        <v>15053754845.31385</v>
       </c>
       <c r="D223" t="n">
-        <v>533634255119.3758</v>
+        <v>534960802333.3107</v>
       </c>
       <c r="E223" t="n">
-        <v>2518.206586073758</v>
+        <v>2597.039402531223</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.2485873425869478</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45011</v>
+        <v>45012</v>
       </c>
       <c r="B224" t="n">
-        <v>27670.19949849683</v>
+        <v>28048.46997853496</v>
       </c>
       <c r="C224" t="n">
-        <v>15053754845.31385</v>
+        <v>14450374261.0638</v>
       </c>
       <c r="D224" t="n">
-        <v>534960802333.3107</v>
+        <v>542675619058.7797</v>
       </c>
       <c r="E224" t="n">
-        <v>2597.039402531084</v>
+        <v>2675.406029506294</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1.442127477717925</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="B225" t="n">
-        <v>28048.46997853496</v>
+        <v>27182.29955995046</v>
       </c>
       <c r="C225" t="n">
-        <v>14450374261.0638</v>
+        <v>18519053231.63728</v>
       </c>
       <c r="D225" t="n">
-        <v>542675619058.7797</v>
+        <v>525230880103.1384</v>
       </c>
       <c r="E225" t="n">
-        <v>2675.406029506155</v>
+        <v>2708.385275103805</v>
+      </c>
+      <c r="F225" t="n">
+        <v>-3.214579454646882</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="B226" t="n">
-        <v>27182.29955995046</v>
+        <v>27291.3500210497</v>
       </c>
       <c r="C226" t="n">
-        <v>18519053231.63728</v>
+        <v>17658503318.91048</v>
       </c>
       <c r="D226" t="n">
-        <v>525230880103.1384</v>
+        <v>528042785008.9827</v>
       </c>
       <c r="E226" t="n">
-        <v>2708.385275103664</v>
+        <v>2744.271521336708</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.5353654958924148</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="B227" t="n">
-        <v>27291.3500210497</v>
+        <v>28394.99778019906</v>
       </c>
       <c r="C227" t="n">
-        <v>17658503318.91048</v>
+        <v>21097595427.48953</v>
       </c>
       <c r="D227" t="n">
-        <v>528042785008.9827</v>
+        <v>548808373530.0567</v>
       </c>
       <c r="E227" t="n">
-        <v>2744.271521336565</v>
+        <v>2814.046505075852</v>
+      </c>
+      <c r="F227" t="n">
+        <v>3.932557949962479</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B228" t="n">
-        <v>28394.99778019906</v>
+        <v>28041.12308008828</v>
       </c>
       <c r="C228" t="n">
-        <v>21097595427.48953</v>
+        <v>22702531379.35043</v>
       </c>
       <c r="D228" t="n">
-        <v>548808373530.0567</v>
+        <v>542369769760.288</v>
       </c>
       <c r="E228" t="n">
-        <v>2814.046505075709</v>
+        <v>2851.641556723187</v>
+      </c>
+      <c r="F228" t="n">
+        <v>-1.173197072113574</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="B229" t="n">
-        <v>28041.12308008828</v>
+        <v>28516.78472968864</v>
       </c>
       <c r="C229" t="n">
-        <v>22702531379.35043</v>
+        <v>19112345639.96219</v>
       </c>
       <c r="D229" t="n">
-        <v>542369769760.288</v>
+        <v>551707238559.8757</v>
       </c>
       <c r="E229" t="n">
-        <v>2851.641556723043</v>
+        <v>2906.991316985552</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1.721605686783523</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="B230" t="n">
-        <v>28516.78472968864</v>
+        <v>28498.94463304862</v>
       </c>
       <c r="C230" t="n">
-        <v>19112345639.96219</v>
+        <v>10085380788.87092</v>
       </c>
       <c r="D230" t="n">
-        <v>551707238559.8757</v>
+        <v>550949831049.3949</v>
       </c>
       <c r="E230" t="n">
-        <v>2906.991316985406</v>
+        <v>2947.757064014208</v>
+      </c>
+      <c r="F230" t="n">
+        <v>-0.1372843163083948</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45018</v>
+        <v>45019</v>
       </c>
       <c r="B231" t="n">
-        <v>28498.94463304862</v>
+        <v>28236.50873893979</v>
       </c>
       <c r="C231" t="n">
-        <v>10085380788.87092</v>
+        <v>11682876586.81453</v>
       </c>
       <c r="D231" t="n">
-        <v>550949831049.3949</v>
+        <v>545181408318.2205</v>
       </c>
       <c r="E231" t="n">
-        <v>2947.757064014061</v>
+        <v>2935.786338454109</v>
+      </c>
+      <c r="F231" t="n">
+        <v>-1.046996006911782</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="B232" t="n">
-        <v>28236.50873893979</v>
+        <v>27815.42653124798</v>
       </c>
       <c r="C232" t="n">
-        <v>11682876586.81453</v>
+        <v>19711493345.47604</v>
       </c>
       <c r="D232" t="n">
-        <v>545181408318.2205</v>
+        <v>539350908801.9282</v>
       </c>
       <c r="E232" t="n">
-        <v>2935.786338453956</v>
+        <v>2898.105290329868</v>
+      </c>
+      <c r="F232" t="n">
+        <v>-1.069460445153159</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="B233" t="n">
-        <v>27815.42653124798</v>
+        <v>28175.33033421539</v>
       </c>
       <c r="C233" t="n">
-        <v>19711493345.47604</v>
+        <v>14871614372.83109</v>
       </c>
       <c r="D233" t="n">
-        <v>539350908801.9282</v>
+        <v>544313567953.4008</v>
       </c>
       <c r="E233" t="n">
-        <v>2898.10529032971</v>
+        <v>2859.976613610691</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.9201169536352971</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="B234" t="n">
-        <v>28175.33033421539</v>
+        <v>28197.20034124555</v>
       </c>
       <c r="C234" t="n">
-        <v>14871614372.83109</v>
+        <v>16507617903.81395</v>
       </c>
       <c r="D234" t="n">
-        <v>544313567953.4008</v>
+        <v>545409754928.5269</v>
       </c>
       <c r="E234" t="n">
-        <v>2859.976613610527</v>
+        <v>2808.054387110464</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.2013888757628646</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="B235" t="n">
-        <v>28197.20034124555</v>
+        <v>28042.9833864884</v>
       </c>
       <c r="C235" t="n">
-        <v>16507617903.81395</v>
+        <v>13079528995.13992</v>
       </c>
       <c r="D235" t="n">
-        <v>545409754928.5269</v>
+        <v>542601176317.4441</v>
       </c>
       <c r="E235" t="n">
-        <v>2808.054387110292</v>
+        <v>2727.669770044803</v>
+      </c>
+      <c r="F235" t="n">
+        <v>-0.5149483641800345</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45023</v>
+        <v>45024</v>
       </c>
       <c r="B236" t="n">
-        <v>28042.9833864884</v>
+        <v>27934.43871284895</v>
       </c>
       <c r="C236" t="n">
-        <v>13079528995.13992</v>
+        <v>10141276803.89391</v>
       </c>
       <c r="D236" t="n">
-        <v>542601176317.4441</v>
+        <v>540432353743.3232</v>
       </c>
       <c r="E236" t="n">
-        <v>2727.66977004462</v>
+        <v>2597.547110280301</v>
+      </c>
+      <c r="F236" t="n">
+        <v>-0.3997084173020804</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45024</v>
+        <v>45025</v>
       </c>
       <c r="B237" t="n">
-        <v>27934.43871284895</v>
+        <v>27968.12804705512</v>
       </c>
       <c r="C237" t="n">
-        <v>10141276803.89391</v>
+        <v>8844199146.180099</v>
       </c>
       <c r="D237" t="n">
-        <v>540432353743.3232</v>
+        <v>541094458101.4471</v>
       </c>
       <c r="E237" t="n">
-        <v>2597.547110280103</v>
+        <v>2332.420109543817</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.1225138268532433</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45025</v>
+        <v>45026</v>
       </c>
       <c r="B238" t="n">
-        <v>27968.12804705512</v>
+        <v>28351.23699385011</v>
       </c>
       <c r="C238" t="n">
-        <v>8844199146.180099</v>
+        <v>11429030269.73169</v>
       </c>
       <c r="D238" t="n">
-        <v>541094458101.4471</v>
+        <v>548568597244.1978</v>
       </c>
       <c r="E238" t="n">
-        <v>2332.420109543588</v>
+        <v>1986.243523011206</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1.381300257440343</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="B239" t="n">
-        <v>28351.23699385011</v>
+        <v>29657.97413687356</v>
       </c>
       <c r="C239" t="n">
-        <v>11429030269.73169</v>
+        <v>17475381731.25188</v>
       </c>
       <c r="D239" t="n">
-        <v>548568597244.1978</v>
+        <v>574059578670.3654</v>
       </c>
       <c r="E239" t="n">
-        <v>1986.243523010927</v>
+        <v>1613.483045074165</v>
+      </c>
+      <c r="F239" t="n">
+        <v>4.646817472641462</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="B240" t="n">
-        <v>29657.97413687356</v>
+        <v>30260.93610940865</v>
       </c>
       <c r="C240" t="n">
-        <v>17475381731.25188</v>
+        <v>18320296514.77765</v>
       </c>
       <c r="D240" t="n">
-        <v>574059578670.3654</v>
+        <v>585359301945.2595</v>
       </c>
       <c r="E240" t="n">
-        <v>1613.483045073809</v>
+        <v>1361.886588145761</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1.968388594972414</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="B241" t="n">
-        <v>30260.93610940865</v>
+        <v>29904.13869471891</v>
       </c>
       <c r="C241" t="n">
-        <v>18320296514.77765</v>
+        <v>18407698928.06657</v>
       </c>
       <c r="D241" t="n">
-        <v>585359301945.2595</v>
+        <v>578850627447.6105</v>
       </c>
       <c r="E241" t="n">
-        <v>1361.886588145325</v>
+        <v>1256.691515481703</v>
+      </c>
+      <c r="F241" t="n">
+        <v>-1.111911005090294</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="B242" t="n">
-        <v>29904.13869471891</v>
+        <v>30405.02731278115</v>
       </c>
       <c r="C242" t="n">
-        <v>18407698928.06657</v>
+        <v>16404033694.47376</v>
       </c>
       <c r="D242" t="n">
-        <v>578850627447.6105</v>
+        <v>587939018759.4221</v>
       </c>
       <c r="E242" t="n">
-        <v>1256.69151548122</v>
+        <v>1201.75689782143</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1.570075401297588</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45030</v>
+        <v>45031</v>
       </c>
       <c r="B243" t="n">
-        <v>30405.02731278115</v>
+        <v>30468.40870059078</v>
       </c>
       <c r="C243" t="n">
-        <v>16404033694.47376</v>
+        <v>20984067684.21622</v>
       </c>
       <c r="D243" t="n">
-        <v>587939018759.4221</v>
+        <v>589051372432.549</v>
       </c>
       <c r="E243" t="n">
-        <v>1201.756897820915</v>
+        <v>1083.54298719612</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.1891954161290288</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45031</v>
+        <v>45032</v>
       </c>
       <c r="B244" t="n">
-        <v>30468.40870059078</v>
+        <v>30312.16187965924</v>
       </c>
       <c r="C244" t="n">
-        <v>20984067684.21622</v>
+        <v>11028264273.14671</v>
       </c>
       <c r="D244" t="n">
-        <v>589051372432.549</v>
+        <v>586969785778.0928</v>
       </c>
       <c r="E244" t="n">
-        <v>1083.542987195537</v>
+        <v>985.3503184853469</v>
+      </c>
+      <c r="F244" t="n">
+        <v>-0.3533794762008657</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="B245" t="n">
-        <v>30312.16187965924</v>
+        <v>30304.80751478584</v>
       </c>
       <c r="C245" t="n">
-        <v>11028264273.14671</v>
+        <v>11188035367.07702</v>
       </c>
       <c r="D245" t="n">
-        <v>586969785778.0928</v>
+        <v>586268225587.8677</v>
       </c>
       <c r="E245" t="n">
-        <v>985.3503184846944</v>
+        <v>1028.503940802334</v>
+      </c>
+      <c r="F245" t="n">
+        <v>-0.119522368480196</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="B246" t="n">
-        <v>30304.80751478584</v>
+        <v>29467.45982926034</v>
       </c>
       <c r="C246" t="n">
-        <v>11188035367.07702</v>
+        <v>16771824487.57936</v>
       </c>
       <c r="D246" t="n">
-        <v>586268225587.8677</v>
+        <v>569958059900.5195</v>
       </c>
       <c r="E246" t="n">
-        <v>1028.503940801703</v>
+        <v>1009.277944178695</v>
+      </c>
+      <c r="F246" t="n">
+        <v>-2.78203132550694</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B247" t="n">
-        <v>29467.45982926034</v>
+        <v>30365.90416754141</v>
       </c>
       <c r="C247" t="n">
-        <v>16771824487.57936</v>
+        <v>18078539248.52104</v>
       </c>
       <c r="D247" t="n">
-        <v>569958059900.5195</v>
+        <v>587730212230.9563</v>
       </c>
       <c r="E247" t="n">
-        <v>1009.277944178047</v>
+        <v>1058.150886847078</v>
+      </c>
+      <c r="F247" t="n">
+        <v>3.118150892284732</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="B248" t="n">
-        <v>30365.90416754141</v>
+        <v>28833.2175012211</v>
       </c>
       <c r="C248" t="n">
-        <v>18078539248.52104</v>
+        <v>24136616861.63636</v>
       </c>
       <c r="D248" t="n">
-        <v>587730212230.9563</v>
+        <v>558796473890.5958</v>
       </c>
       <c r="E248" t="n">
-        <v>1058.150886846455</v>
+        <v>1050.041246127422</v>
+      </c>
+      <c r="F248" t="n">
+        <v>-4.922962566537348</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="B249" t="n">
-        <v>28833.2175012211</v>
+        <v>28255.57824866478</v>
       </c>
       <c r="C249" t="n">
-        <v>24136616861.63636</v>
+        <v>21695904964.79905</v>
       </c>
       <c r="D249" t="n">
-        <v>558796473890.5958</v>
+        <v>546141074655.3764</v>
       </c>
       <c r="E249" t="n">
-        <v>1050.041246126792</v>
+        <v>1050.157976974541</v>
+      </c>
+      <c r="F249" t="n">
+        <v>-2.264760038141755</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45037</v>
+        <v>45038</v>
       </c>
       <c r="B250" t="n">
-        <v>28255.57824866478</v>
+        <v>27300.15712851557</v>
       </c>
       <c r="C250" t="n">
-        <v>21695904964.79905</v>
+        <v>20420333533.71415</v>
       </c>
       <c r="D250" t="n">
-        <v>546141074655.3764</v>
+        <v>528357279464.0127</v>
       </c>
       <c r="E250" t="n">
-        <v>1050.157976973912</v>
+        <v>1056.469170221391</v>
+      </c>
+      <c r="F250" t="n">
+        <v>-3.256263997829789</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45038</v>
+        <v>45039</v>
       </c>
       <c r="B251" t="n">
-        <v>27300.15712851557</v>
+        <v>27861.64066347655</v>
       </c>
       <c r="C251" t="n">
-        <v>20420333533.71415</v>
+        <v>11700230849.96813</v>
       </c>
       <c r="D251" t="n">
-        <v>528357279464.0127</v>
+        <v>539454716829.9368</v>
       </c>
       <c r="E251" t="n">
-        <v>1056.469170220766</v>
+        <v>1066.080007579371</v>
+      </c>
+      <c r="F251" t="n">
+        <v>2.100366134291143</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45039</v>
+        <v>45040</v>
       </c>
       <c r="B252" t="n">
-        <v>27861.64066347655</v>
+        <v>27606.57834765314</v>
       </c>
       <c r="C252" t="n">
-        <v>11700230849.96813</v>
+        <v>11435645306.7716</v>
       </c>
       <c r="D252" t="n">
-        <v>539454716829.9368</v>
+        <v>533753154140.2553</v>
       </c>
       <c r="E252" t="n">
-        <v>1066.080007578752</v>
+        <v>1065.705511821906</v>
+      </c>
+      <c r="F252" t="n">
+        <v>-1.056912195185966</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45040</v>
+        <v>45041</v>
       </c>
       <c r="B253" t="n">
-        <v>27606.57834765314</v>
+        <v>27511.63568216131</v>
       </c>
       <c r="C253" t="n">
-        <v>11435645306.7716</v>
+        <v>16443099944.64734</v>
       </c>
       <c r="D253" t="n">
-        <v>533753154140.2553</v>
+        <v>532290845181.5339</v>
       </c>
       <c r="E253" t="n">
-        <v>1065.705511821287</v>
+        <v>1071.089755816061</v>
+      </c>
+      <c r="F253" t="n">
+        <v>-0.2739672725825426</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="B254" t="n">
-        <v>27511.63568216131</v>
+        <v>28351.21824837301</v>
       </c>
       <c r="C254" t="n">
-        <v>16443099944.64734</v>
+        <v>17061823985.86535</v>
       </c>
       <c r="D254" t="n">
-        <v>532290845181.5339</v>
+        <v>548359667398.6523</v>
       </c>
       <c r="E254" t="n">
-        <v>1071.089755815445</v>
+        <v>1066.738141907642</v>
+      </c>
+      <c r="F254" t="n">
+        <v>3.018804918885709</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="B255" t="n">
-        <v>28351.21824837301</v>
+        <v>28352.19132059668</v>
       </c>
       <c r="C255" t="n">
-        <v>17061823985.86535</v>
+        <v>30540034741.28477</v>
       </c>
       <c r="D255" t="n">
-        <v>548359667398.6523</v>
+        <v>548638734338.3676</v>
       </c>
       <c r="E255" t="n">
-        <v>1066.738141907024</v>
+        <v>1032.035835993694</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.05089122273325142</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B256" t="n">
-        <v>28352.19132059668</v>
+        <v>29483.52170499186</v>
       </c>
       <c r="C256" t="n">
-        <v>30540034741.28477</v>
+        <v>26238597379.49954</v>
       </c>
       <c r="D256" t="n">
-        <v>548638734338.3676</v>
+        <v>570258039118.5771</v>
       </c>
       <c r="E256" t="n">
-        <v>1032.035835993053</v>
+        <v>1006.933236998453</v>
+      </c>
+      <c r="F256" t="n">
+        <v>3.940535625192676</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45044</v>
+        <v>45045</v>
       </c>
       <c r="B257" t="n">
-        <v>29483.52170499186</v>
+        <v>29339.99499754935</v>
       </c>
       <c r="C257" t="n">
-        <v>26238597379.49954</v>
+        <v>18730801539.18155</v>
       </c>
       <c r="D257" t="n">
-        <v>570258039118.5771</v>
+        <v>568153896404.9741</v>
       </c>
       <c r="E257" t="n">
-        <v>1006.933236997792</v>
+        <v>1009.816566202727</v>
+      </c>
+      <c r="F257" t="n">
+        <v>-0.3689808068037648</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45045</v>
+        <v>45046</v>
       </c>
       <c r="B258" t="n">
-        <v>29339.99499754935</v>
+        <v>29217.94404680991</v>
       </c>
       <c r="C258" t="n">
-        <v>18730801539.18155</v>
+        <v>9711415138.827158</v>
       </c>
       <c r="D258" t="n">
-        <v>568153896404.9741</v>
+        <v>565714356650.6621</v>
       </c>
       <c r="E258" t="n">
-        <v>1009.816566202066</v>
+        <v>1002.391023140834</v>
+      </c>
+      <c r="F258" t="n">
+        <v>-0.4293800974961792</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="B259" t="n">
-        <v>29217.94404680991</v>
+        <v>29362.05621362539</v>
       </c>
       <c r="C259" t="n">
-        <v>9711415138.827158</v>
+        <v>14707008604.647</v>
       </c>
       <c r="D259" t="n">
-        <v>565714356650.6621</v>
+        <v>568513467268.4124</v>
       </c>
       <c r="E259" t="n">
-        <v>1002.391023140165</v>
+        <v>1005.065033939207</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.4947922188721643</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45047</v>
+        <v>45048</v>
       </c>
       <c r="B260" t="n">
-        <v>29362.05621362539</v>
+        <v>28125.50115563682</v>
       </c>
       <c r="C260" t="n">
-        <v>14707008604.647</v>
+        <v>19980169281.00898</v>
       </c>
       <c r="D260" t="n">
-        <v>568513467268.4124</v>
+        <v>544421676291.2009</v>
       </c>
       <c r="E260" t="n">
-        <v>1005.065033938538</v>
+        <v>1011.99800967059</v>
+      </c>
+      <c r="F260" t="n">
+        <v>-4.237681667061899</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45048</v>
+        <v>45049</v>
       </c>
       <c r="B261" t="n">
-        <v>28125.50115563682</v>
+        <v>28654.39013332672</v>
       </c>
       <c r="C261" t="n">
-        <v>19980169281.00898</v>
+        <v>17699097406.1888</v>
       </c>
       <c r="D261" t="n">
-        <v>544421676291.2009</v>
+        <v>554886795897.9369</v>
       </c>
       <c r="E261" t="n">
-        <v>1011.998009669927</v>
+        <v>1006.136090012556</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1.922245212209073</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="B262" t="n">
-        <v>28654.39013332672</v>
+        <v>28988.32099624927</v>
       </c>
       <c r="C262" t="n">
-        <v>17699097406.1888</v>
+        <v>19944381490.56002</v>
       </c>
       <c r="D262" t="n">
-        <v>554886795897.9369</v>
+        <v>561312171794.5802</v>
       </c>
       <c r="E262" t="n">
-        <v>1006.136090011888</v>
+        <v>986.6286049879949</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1.157961577774724</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="B263" t="n">
-        <v>28988.32099624927</v>
+        <v>28846.46145860806</v>
       </c>
       <c r="C263" t="n">
-        <v>19944381490.56002</v>
+        <v>12676760580.08019</v>
       </c>
       <c r="D263" t="n">
-        <v>561312171794.5802</v>
+        <v>558634329303.2208</v>
       </c>
       <c r="E263" t="n">
-        <v>986.628604987311</v>
+        <v>977.1468363635033</v>
+      </c>
+      <c r="F263" t="n">
+        <v>-0.4770683099206585</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45051</v>
+        <v>45052</v>
       </c>
       <c r="B264" t="n">
-        <v>28846.46145860806</v>
+        <v>29520.3222689705</v>
       </c>
       <c r="C264" t="n">
-        <v>12676760580.08019</v>
+        <v>4971523630.54862</v>
       </c>
       <c r="D264" t="n">
-        <v>558634329303.2208</v>
+        <v>571520224182.8824</v>
       </c>
       <c r="E264" t="n">
-        <v>977.1468363628115</v>
+        <v>973.0449996217396</v>
+      </c>
+      <c r="F264" t="n">
+        <v>2.306677947224278</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45052</v>
+        <v>45053</v>
       </c>
       <c r="B265" t="n">
-        <v>29520.3222689705</v>
+        <v>28887.74104552337</v>
       </c>
       <c r="C265" t="n">
-        <v>4971523630.54862</v>
+        <v>6463808309.438925</v>
       </c>
       <c r="D265" t="n">
-        <v>571520224182.8824</v>
+        <v>559078681902.6073</v>
       </c>
       <c r="E265" t="n">
-        <v>973.0449996210423</v>
+        <v>957.4368045735155</v>
+      </c>
+      <c r="F265" t="n">
+        <v>-2.176920737680477</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45053</v>
+        <v>45054</v>
       </c>
       <c r="B266" t="n">
-        <v>28887.74104552337</v>
+        <v>28611.43919761457</v>
       </c>
       <c r="C266" t="n">
-        <v>6463808309.438925</v>
+        <v>10199066943.17034</v>
       </c>
       <c r="D266" t="n">
-        <v>559078681902.6073</v>
+        <v>554373015261.6681</v>
       </c>
       <c r="E266" t="n">
-        <v>957.436804572805</v>
+        <v>939.3450956660245</v>
+      </c>
+      <c r="F266" t="n">
+        <v>-0.8416823594355805</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45054</v>
+        <v>45055</v>
       </c>
       <c r="B267" t="n">
-        <v>28611.43919761457</v>
+        <v>27696.76078562556</v>
       </c>
       <c r="C267" t="n">
-        <v>10199066943.17034</v>
+        <v>21535578788.86028</v>
       </c>
       <c r="D267" t="n">
-        <v>554373015261.6681</v>
+        <v>536032086472.038</v>
       </c>
       <c r="E267" t="n">
-        <v>939.345095665299</v>
+        <v>951.0492808255663</v>
+      </c>
+      <c r="F267" t="n">
+        <v>-3.308409371436127</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45055</v>
+        <v>45056</v>
       </c>
       <c r="B268" t="n">
-        <v>27696.76078562556</v>
+        <v>27607.39168091902</v>
       </c>
       <c r="C268" t="n">
-        <v>21535578788.86028</v>
+        <v>8876813250.933558</v>
       </c>
       <c r="D268" t="n">
-        <v>536032086472.038</v>
+        <v>535037100026.6903</v>
       </c>
       <c r="E268" t="n">
-        <v>951.0492808248504</v>
+        <v>978.1312153226443</v>
+      </c>
+      <c r="F268" t="n">
+        <v>-0.1856206877271727</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="B269" t="n">
-        <v>27607.39168091902</v>
+        <v>27639.73356593586</v>
       </c>
       <c r="C269" t="n">
-        <v>8876813250.933558</v>
+        <v>17159331951.18988</v>
       </c>
       <c r="D269" t="n">
-        <v>535037100026.6903</v>
+        <v>534937464538.7582</v>
       </c>
       <c r="E269" t="n">
-        <v>978.1312153219498</v>
+        <v>999.4483771963281</v>
+      </c>
+      <c r="F269" t="n">
+        <v>-0.01862216431852692</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B270" t="n">
-        <v>27639.73356593586</v>
+        <v>27024.76572929978</v>
       </c>
       <c r="C270" t="n">
-        <v>17159331951.18988</v>
+        <v>7754296234.077171</v>
       </c>
       <c r="D270" t="n">
-        <v>534937464538.7582</v>
+        <v>523414877659.3074</v>
       </c>
       <c r="E270" t="n">
-        <v>999.4483771956523</v>
+        <v>1023.859326883878</v>
+      </c>
+      <c r="F270" t="n">
+        <v>-2.154006335934244</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45058</v>
+        <v>45059</v>
       </c>
       <c r="B271" t="n">
-        <v>27024.76572929978</v>
+        <v>26787.69039591833</v>
       </c>
       <c r="C271" t="n">
-        <v>7754296234.077171</v>
+        <v>9157286238.193073</v>
       </c>
       <c r="D271" t="n">
-        <v>523414877659.3074</v>
+        <v>518816444750.7709</v>
       </c>
       <c r="E271" t="n">
-        <v>1023.859326883225</v>
+        <v>1066.262388857845</v>
+      </c>
+      <c r="F271" t="n">
+        <v>-0.8785445551529825</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45059</v>
+        <v>45060</v>
       </c>
       <c r="B272" t="n">
-        <v>26787.69039591833</v>
+        <v>26798.1262714747</v>
       </c>
       <c r="C272" t="n">
-        <v>9157286238.193073</v>
+        <v>8365379054.202115</v>
       </c>
       <c r="D272" t="n">
-        <v>518816444750.7709</v>
+        <v>520426027097.3362</v>
       </c>
       <c r="E272" t="n">
-        <v>1066.262388857225</v>
+        <v>1071.457102685362</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.3102411966410479</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45060</v>
+        <v>45061</v>
       </c>
       <c r="B273" t="n">
-        <v>26798.1262714747</v>
+        <v>26911.80527321389</v>
       </c>
       <c r="C273" t="n">
-        <v>8365379054.202115</v>
+        <v>6019488454.419681</v>
       </c>
       <c r="D273" t="n">
-        <v>520426027097.3362</v>
+        <v>521319019334.6962</v>
       </c>
       <c r="E273" t="n">
-        <v>1071.457102684752</v>
+        <v>1052.601821029554</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.1715886967338376</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B274" t="n">
-        <v>26911.80527321389</v>
+        <v>27227.79342255879</v>
       </c>
       <c r="C274" t="n">
-        <v>6019488454.419681</v>
+        <v>14570026781.74709</v>
       </c>
       <c r="D274" t="n">
-        <v>521319019334.6962</v>
+        <v>527655229433.8867</v>
       </c>
       <c r="E274" t="n">
-        <v>1052.601821028939</v>
+        <v>1016.220910507661</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1.215418940071822</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B275" t="n">
-        <v>27227.79342255879</v>
+        <v>27022.71317392115</v>
       </c>
       <c r="C275" t="n">
-        <v>14570026781.74709</v>
+        <v>12927093920.903</v>
       </c>
       <c r="D275" t="n">
-        <v>527655229433.8867</v>
+        <v>523965691858.8659</v>
       </c>
       <c r="E275" t="n">
-        <v>1016.220910507031</v>
+        <v>976.0323388433691</v>
+      </c>
+      <c r="F275" t="n">
+        <v>-0.6992326369965607</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="B276" t="n">
-        <v>27022.71317392115</v>
+        <v>27389.9715114422</v>
       </c>
       <c r="C276" t="n">
-        <v>12927093920.903</v>
+        <v>12580626234.91345</v>
       </c>
       <c r="D276" t="n">
-        <v>523965691858.8659</v>
+        <v>530762551513.4872</v>
       </c>
       <c r="E276" t="n">
-        <v>976.0323388427197</v>
+        <v>960.6441341336679</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1.297195553111141</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="B277" t="n">
-        <v>27389.9715114422</v>
+        <v>26842.95249471792</v>
       </c>
       <c r="C277" t="n">
-        <v>12580626234.91345</v>
+        <v>12599487111.93878</v>
       </c>
       <c r="D277" t="n">
-        <v>530762551513.4872</v>
+        <v>520544913836.41</v>
       </c>
       <c r="E277" t="n">
-        <v>960.6441341330124</v>
+        <v>898.2927926518115</v>
+      </c>
+      <c r="F277" t="n">
+        <v>-1.925086396532916</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45065</v>
+        <v>45066</v>
       </c>
       <c r="B278" t="n">
-        <v>26842.95249471792</v>
+        <v>26884.37105958995</v>
       </c>
       <c r="C278" t="n">
-        <v>12599487111.93878</v>
+        <v>11559136131.36877</v>
       </c>
       <c r="D278" t="n">
-        <v>520544913836.41</v>
+        <v>521153640362.9618</v>
       </c>
       <c r="E278" t="n">
-        <v>898.2927926511179</v>
+        <v>911.4659707488515</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.1169402505665662</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45066</v>
+        <v>45067</v>
       </c>
       <c r="B279" t="n">
-        <v>26884.37105958995</v>
+        <v>27093.79110149735</v>
       </c>
       <c r="C279" t="n">
-        <v>11559136131.36877</v>
+        <v>3882362454.219783</v>
       </c>
       <c r="D279" t="n">
-        <v>521153640362.9618</v>
+        <v>525040003344.1629</v>
       </c>
       <c r="E279" t="n">
-        <v>911.4659707481724</v>
+        <v>924.975642047148</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.7457230805284931</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45067</v>
+        <v>45068</v>
       </c>
       <c r="B280" t="n">
-        <v>27093.79110149735</v>
+        <v>26773.83024366478</v>
       </c>
       <c r="C280" t="n">
-        <v>3882362454.219783</v>
+        <v>8125825605.684245</v>
       </c>
       <c r="D280" t="n">
-        <v>525040003344.1629</v>
+        <v>519171380714.0945</v>
       </c>
       <c r="E280" t="n">
-        <v>924.9756420464812</v>
+        <v>942.8390326935018</v>
+      </c>
+      <c r="F280" t="n">
+        <v>-1.117747713067407</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45068</v>
+        <v>45069</v>
       </c>
       <c r="B281" t="n">
-        <v>26773.83024366478</v>
+        <v>26869.68602179078</v>
       </c>
       <c r="C281" t="n">
-        <v>8125825605.684245</v>
+        <v>8025716966.179398</v>
       </c>
       <c r="D281" t="n">
-        <v>519171380714.0945</v>
+        <v>520821915713.9187</v>
       </c>
       <c r="E281" t="n">
-        <v>942.8390326928486</v>
+        <v>963.1266377275869</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.3179171774750023</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="B282" t="n">
-        <v>26869.68602179078</v>
+        <v>27222.93774660385</v>
       </c>
       <c r="C282" t="n">
-        <v>8025716966.179398</v>
+        <v>11685763863.31237</v>
       </c>
       <c r="D282" t="n">
-        <v>520821915713.9187</v>
+        <v>527528695688.7587</v>
       </c>
       <c r="E282" t="n">
-        <v>963.1266377269494</v>
+        <v>969.8773705431361</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1.287729984566166</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="B283" t="n">
-        <v>27222.93774660385</v>
+        <v>26338.94894699869</v>
       </c>
       <c r="C283" t="n">
-        <v>11685763863.31237</v>
+        <v>17477200137.10873</v>
       </c>
       <c r="D283" t="n">
-        <v>527528695688.7587</v>
+        <v>510987979871.2201</v>
       </c>
       <c r="E283" t="n">
-        <v>969.8773705425036</v>
+        <v>1008.978556051126</v>
+      </c>
+      <c r="F283" t="n">
+        <v>-3.135510153801691</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="B284" t="n">
-        <v>26338.94894699869</v>
+        <v>26475.60790253427</v>
       </c>
       <c r="C284" t="n">
-        <v>17477200137.10873</v>
+        <v>11953749225.494</v>
       </c>
       <c r="D284" t="n">
-        <v>510987979871.2201</v>
+        <v>513295724355.699</v>
       </c>
       <c r="E284" t="n">
-        <v>1008.97855605052</v>
+        <v>1035.413892417418</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.4516240254928361</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45072</v>
+        <v>45073</v>
       </c>
       <c r="B285" t="n">
-        <v>26475.60790253427</v>
+        <v>26717.98755357178</v>
       </c>
       <c r="C285" t="n">
-        <v>11953749225.494</v>
+        <v>10994037071.45216</v>
       </c>
       <c r="D285" t="n">
-        <v>513295724355.699</v>
+        <v>517973731437.9403</v>
       </c>
       <c r="E285" t="n">
-        <v>1035.413892416831</v>
+        <v>1048.267141309258</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.9113668515577933</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45073</v>
+        <v>45074</v>
       </c>
       <c r="B286" t="n">
-        <v>26717.98755357178</v>
+        <v>26848.23993959246</v>
       </c>
       <c r="C286" t="n">
-        <v>10994037071.45216</v>
+        <v>6029471707.897409</v>
       </c>
       <c r="D286" t="n">
-        <v>517973731437.9403</v>
+        <v>520461980942.2543</v>
       </c>
       <c r="E286" t="n">
-        <v>1048.267141308681</v>
+        <v>1007.212681505077</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.4803814080313273</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45074</v>
+        <v>45075</v>
       </c>
       <c r="B287" t="n">
-        <v>26848.23993959246</v>
+        <v>28110.31346760928</v>
       </c>
       <c r="C287" t="n">
-        <v>6029471707.897409</v>
+        <v>13144599279.47902</v>
       </c>
       <c r="D287" t="n">
-        <v>520461980942.2543</v>
+        <v>544879177078.8053</v>
       </c>
       <c r="E287" t="n">
-        <v>1007.21268150448</v>
+        <v>960.3167847884916</v>
+      </c>
+      <c r="F287" t="n">
+        <v>4.691446643680997</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="B288" t="n">
-        <v>28110.31346760928</v>
+        <v>27759.74666392068</v>
       </c>
       <c r="C288" t="n">
-        <v>13144599279.47902</v>
+        <v>13483205892.53959</v>
       </c>
       <c r="D288" t="n">
-        <v>544879177078.8053</v>
+        <v>538430950369.4982</v>
       </c>
       <c r="E288" t="n">
-        <v>960.316784787867</v>
+        <v>912.1688203451856</v>
+      </c>
+      <c r="F288" t="n">
+        <v>-1.183423221250113</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="B289" t="n">
-        <v>27759.74666392068</v>
+        <v>27713.90854752951</v>
       </c>
       <c r="C289" t="n">
-        <v>13483205892.53959</v>
+        <v>12766436369.81596</v>
       </c>
       <c r="D289" t="n">
-        <v>538430950369.4982</v>
+        <v>537414074116.4985</v>
       </c>
       <c r="E289" t="n">
-        <v>912.1688203445307</v>
+        <v>847.7508893270466</v>
+      </c>
+      <c r="F289" t="n">
+        <v>-0.1888591754062197</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="B290" t="n">
-        <v>27713.90854752951</v>
+        <v>27245.47446517972</v>
       </c>
       <c r="C290" t="n">
-        <v>12766436369.81596</v>
+        <v>10001106221.64707</v>
       </c>
       <c r="D290" t="n">
-        <v>537414074116.4985</v>
+        <v>528464394082.9387</v>
       </c>
       <c r="E290" t="n">
-        <v>847.7508893263453</v>
+        <v>841.0287941551228</v>
+      </c>
+      <c r="F290" t="n">
+        <v>-1.665322972472016</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="B291" t="n">
-        <v>27245.47446517972</v>
+        <v>26824.10149951678</v>
       </c>
       <c r="C291" t="n">
-        <v>10001106221.64707</v>
+        <v>12156086970.87299</v>
       </c>
       <c r="D291" t="n">
-        <v>528464394082.9387</v>
+        <v>520271910707.1127</v>
       </c>
       <c r="E291" t="n">
-        <v>841.0287941544175</v>
+        <v>819.2872086941935</v>
+      </c>
+      <c r="F291" t="n">
+        <v>-1.550243207972901</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="B292" t="n">
-        <v>26824.10149951678</v>
+        <v>27247.74008145703</v>
       </c>
       <c r="C292" t="n">
-        <v>12156086970.87299</v>
+        <v>15428145241.77596</v>
       </c>
       <c r="D292" t="n">
-        <v>520271910707.1127</v>
+        <v>528508990069.2122</v>
       </c>
       <c r="E292" t="n">
-        <v>819.2872086934732</v>
+        <v>764.3882683825148</v>
+      </c>
+      <c r="F292" t="n">
+        <v>1.583225846443304</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45080</v>
+        <v>45081</v>
       </c>
       <c r="B293" t="n">
-        <v>27247.74008145703</v>
+        <v>27066.37132852623</v>
       </c>
       <c r="C293" t="n">
-        <v>15428145241.77596</v>
+        <v>6673279605.629511</v>
       </c>
       <c r="D293" t="n">
-        <v>528508990069.2122</v>
+        <v>525209390395.506</v>
       </c>
       <c r="E293" t="n">
-        <v>764.3882683817468</v>
+        <v>712.7487561597295</v>
+      </c>
+      <c r="F293" t="n">
+        <v>-0.6243223361771189</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45081</v>
+        <v>45082</v>
       </c>
       <c r="B294" t="n">
-        <v>27066.37132852623</v>
+        <v>27315.44758748768</v>
       </c>
       <c r="C294" t="n">
-        <v>6673279605.629511</v>
+        <v>6098045626.047618</v>
       </c>
       <c r="D294" t="n">
-        <v>525209390395.506</v>
+        <v>529630092281.3868</v>
       </c>
       <c r="E294" t="n">
-        <v>712.7487561589106</v>
+        <v>577.2862442494205</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.8417027506975483</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B295" t="n">
-        <v>27315.44758748768</v>
+        <v>25792.6160902334</v>
       </c>
       <c r="C295" t="n">
-        <v>6098045626.047618</v>
+        <v>21208433571.87331</v>
       </c>
       <c r="D295" t="n">
-        <v>529630092281.3868</v>
+        <v>500593893699.2183</v>
       </c>
       <c r="E295" t="n">
-        <v>577.2862442484175</v>
+        <v>546.935191926136</v>
+      </c>
+      <c r="F295" t="n">
+        <v>-5.482354383810561</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="B296" t="n">
-        <v>25792.6160902334</v>
+        <v>27216.61556469773</v>
       </c>
       <c r="C296" t="n">
-        <v>21208433571.87331</v>
+        <v>22188018260.83246</v>
       </c>
       <c r="D296" t="n">
-        <v>500593893699.2183</v>
+        <v>527295592028.0809</v>
       </c>
       <c r="E296" t="n">
-        <v>546.9351919250887</v>
+        <v>470.490758244547</v>
+      </c>
+      <c r="F296" t="n">
+        <v>5.334004003034498</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B297" t="n">
-        <v>27216.61556469773</v>
+        <v>26346.24454513763</v>
       </c>
       <c r="C297" t="n">
-        <v>22188018260.83246</v>
+        <v>14723854336.09437</v>
       </c>
       <c r="D297" t="n">
-        <v>527295592028.0809</v>
+        <v>510979921090.6337</v>
       </c>
       <c r="E297" t="n">
-        <v>470.4907582433354</v>
+        <v>474.2603575693908</v>
+      </c>
+      <c r="F297" t="n">
+        <v>-3.094217206461747</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="B298" t="n">
-        <v>26346.24454513763</v>
+        <v>26507.90989220298</v>
       </c>
       <c r="C298" t="n">
-        <v>14723854336.09437</v>
+        <v>10197924963.78026</v>
       </c>
       <c r="D298" t="n">
-        <v>510979921090.6337</v>
+        <v>514279355771.4992</v>
       </c>
       <c r="E298" t="n">
-        <v>474.2603575681944</v>
+        <v>471.1528619439347</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.6457073056458151</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="B299" t="n">
-        <v>26507.90989220298</v>
+        <v>26469.58168400703</v>
       </c>
       <c r="C299" t="n">
-        <v>10197924963.78026</v>
+        <v>10464066236.48124</v>
       </c>
       <c r="D299" t="n">
-        <v>514279355771.4992</v>
+        <v>513226142603.1213</v>
       </c>
       <c r="E299" t="n">
-        <v>471.1528619427347</v>
+        <v>464.808782585015</v>
+      </c>
+      <c r="F299" t="n">
+        <v>-0.2047939814340705</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45087</v>
+        <v>45088</v>
       </c>
       <c r="B300" t="n">
-        <v>26469.58168400703</v>
+        <v>25858.12289218562</v>
       </c>
       <c r="C300" t="n">
-        <v>10464066236.48124</v>
+        <v>9755626714.244692</v>
       </c>
       <c r="D300" t="n">
-        <v>513226142603.1213</v>
+        <v>501653860264.2029</v>
       </c>
       <c r="E300" t="n">
-        <v>464.8087825838031</v>
+        <v>506.2920318091255</v>
+      </c>
+      <c r="F300" t="n">
+        <v>-2.254811549587654</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45088</v>
+        <v>45089</v>
       </c>
       <c r="B301" t="n">
-        <v>25858.12289218562</v>
+        <v>25916.57989637981</v>
       </c>
       <c r="C301" t="n">
-        <v>9755626714.244692</v>
+        <v>10439993428.36551</v>
       </c>
       <c r="D301" t="n">
-        <v>501653860264.2029</v>
+        <v>502683000962.4302</v>
       </c>
       <c r="E301" t="n">
-        <v>506.2920318080168</v>
+        <v>538.2715685460591</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.2051495622271027</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="B302" t="n">
-        <v>25916.57989637981</v>
+        <v>25910.36274291946</v>
       </c>
       <c r="C302" t="n">
-        <v>10439993428.36551</v>
+        <v>9761691909.316031</v>
       </c>
       <c r="D302" t="n">
-        <v>502683000962.4302</v>
+        <v>502562686069.1699</v>
       </c>
       <c r="E302" t="n">
-        <v>538.2715685450192</v>
+        <v>567.3231940952631</v>
+      </c>
+      <c r="F302" t="n">
+        <v>-0.02393454583305976</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="B303" t="n">
-        <v>25910.36274291946</v>
+        <v>25872.20645879509</v>
       </c>
       <c r="C303" t="n">
-        <v>9761691909.316031</v>
+        <v>9921875985.888603</v>
       </c>
       <c r="D303" t="n">
-        <v>502562686069.1699</v>
+        <v>501752262681.7188</v>
       </c>
       <c r="E303" t="n">
-        <v>567.3231940942793</v>
+        <v>595.3636690828745</v>
+      </c>
+      <c r="F303" t="n">
+        <v>-0.1612581693618775</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="B304" t="n">
-        <v>25872.20645879509</v>
+        <v>25107.75469588059</v>
       </c>
       <c r="C304" t="n">
-        <v>9921875985.888603</v>
+        <v>11982737579.70281</v>
       </c>
       <c r="D304" t="n">
-        <v>501752262681.7188</v>
+        <v>487262840554.6715</v>
       </c>
       <c r="E304" t="n">
-        <v>595.3636690819401</v>
+        <v>667.8537458514137</v>
+      </c>
+      <c r="F304" t="n">
+        <v>-2.88776418258796</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="B305" t="n">
-        <v>25107.75469588059</v>
+        <v>25564.59963288714</v>
       </c>
       <c r="C305" t="n">
-        <v>11982737579.70281</v>
+        <v>15184095954.02951</v>
       </c>
       <c r="D305" t="n">
-        <v>487262840554.6715</v>
+        <v>495788386559.1016</v>
       </c>
       <c r="E305" t="n">
-        <v>667.8537458505862</v>
+        <v>700.252256321559</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1.749681136104098</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45093</v>
+        <v>45094</v>
       </c>
       <c r="B306" t="n">
-        <v>25564.59963288714</v>
+        <v>26327.3256694539</v>
       </c>
       <c r="C306" t="n">
-        <v>15184095954.02951</v>
+        <v>13604025863.64197</v>
       </c>
       <c r="D306" t="n">
-        <v>495788386559.1016</v>
+        <v>510906153487.6052</v>
       </c>
       <c r="E306" t="n">
-        <v>700.2522563207733</v>
+        <v>691.4992768958668</v>
+      </c>
+      <c r="F306" t="n">
+        <v>3.049237807570448</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45094</v>
+        <v>45095</v>
       </c>
       <c r="B307" t="n">
-        <v>26327.3256694539</v>
+        <v>26501.04444223367</v>
       </c>
       <c r="C307" t="n">
-        <v>13604025863.64197</v>
+        <v>9533422254.890303</v>
       </c>
       <c r="D307" t="n">
-        <v>510906153487.6052</v>
+        <v>514331114457.8236</v>
       </c>
       <c r="E307" t="n">
-        <v>691.4992768950736</v>
+        <v>691.4483917549314</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.6703698804249258</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="B308" t="n">
-        <v>26501.04444223367</v>
+        <v>26333.09252966437</v>
       </c>
       <c r="C308" t="n">
-        <v>9533422254.890303</v>
+        <v>8589379740.11672</v>
       </c>
       <c r="D308" t="n">
-        <v>514331114457.8236</v>
+        <v>511384956032.8801</v>
       </c>
       <c r="E308" t="n">
-        <v>691.4483917541389</v>
+        <v>692.6953099767602</v>
+      </c>
+      <c r="F308" t="n">
+        <v>-0.5728135712826155</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="B309" t="n">
-        <v>26333.09252966437</v>
+        <v>26779.38746152284</v>
       </c>
       <c r="C309" t="n">
-        <v>8589379740.11672</v>
+        <v>6651894946.454161</v>
       </c>
       <c r="D309" t="n">
-        <v>511384956032.8801</v>
+        <v>519667661979.1768</v>
       </c>
       <c r="E309" t="n">
-        <v>692.6953099759703</v>
+        <v>688.0329429931822</v>
+      </c>
+      <c r="F309" t="n">
+        <v>1.6196616362262</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="B310" t="n">
-        <v>26779.38746152284</v>
+        <v>28330.89141980751</v>
       </c>
       <c r="C310" t="n">
-        <v>6651894946.454161</v>
+        <v>19958565664.55226</v>
       </c>
       <c r="D310" t="n">
-        <v>519667661979.1768</v>
+        <v>549330089183.5233</v>
       </c>
       <c r="E310" t="n">
-        <v>688.0329429923877</v>
+        <v>754.4336279130314</v>
+      </c>
+      <c r="F310" t="n">
+        <v>5.707960947844204</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="B311" t="n">
-        <v>28330.89141980751</v>
+        <v>30101.76481948869</v>
       </c>
       <c r="C311" t="n">
-        <v>19958565664.55226</v>
+        <v>23757254196.77703</v>
       </c>
       <c r="D311" t="n">
-        <v>549330089183.5233</v>
+        <v>584070487996.7889</v>
       </c>
       <c r="E311" t="n">
-        <v>754.4336279123036</v>
+        <v>978.8996849169151</v>
+      </c>
+      <c r="F311" t="n">
+        <v>6.324139073630719</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="B312" t="n">
-        <v>30101.76481948869</v>
+        <v>29935.63210674956</v>
       </c>
       <c r="C312" t="n">
-        <v>23757254196.77703</v>
+        <v>19613389213.79876</v>
       </c>
       <c r="D312" t="n">
-        <v>584070487996.7889</v>
+        <v>581473706978.9268</v>
       </c>
       <c r="E312" t="n">
-        <v>978.899684916349</v>
+        <v>1133.032829080673</v>
+      </c>
+      <c r="F312" t="n">
+        <v>-0.4446006211970221</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="B313" t="n">
-        <v>29935.63210674956</v>
+        <v>30629.24435333575</v>
       </c>
       <c r="C313" t="n">
-        <v>19613389213.79876</v>
+        <v>22630955878.97284</v>
       </c>
       <c r="D313" t="n">
-        <v>581473706978.9268</v>
+        <v>594588611688.3142</v>
       </c>
       <c r="E313" t="n">
-        <v>1133.03282908018</v>
+        <v>1317.532839471286</v>
+      </c>
+      <c r="F313" t="n">
+        <v>2.255459628179324</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="B314" t="n">
-        <v>30629.24435333575</v>
+        <v>30537.81666463479</v>
       </c>
       <c r="C314" t="n">
-        <v>22630955878.97284</v>
+        <v>11736119929.84371</v>
       </c>
       <c r="D314" t="n">
-        <v>594588611688.3142</v>
+        <v>592912110031.5245</v>
       </c>
       <c r="E314" t="n">
-        <v>1317.532839470857</v>
+        <v>1459.904691341171</v>
+      </c>
+      <c r="F314" t="n">
+        <v>-0.2819599339498491</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="B315" t="n">
-        <v>30537.81666463479</v>
+        <v>30454.75697441562</v>
       </c>
       <c r="C315" t="n">
-        <v>11736119929.84371</v>
+        <v>12076819255.30491</v>
       </c>
       <c r="D315" t="n">
-        <v>592912110031.5245</v>
+        <v>591387700082.1104</v>
       </c>
       <c r="E315" t="n">
-        <v>1459.90469134078</v>
+        <v>1575.469020574869</v>
+      </c>
+      <c r="F315" t="n">
+        <v>-0.2571055513325815</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="B316" t="n">
-        <v>30454.75697441562</v>
+        <v>30285.50506407074</v>
       </c>
       <c r="C316" t="n">
-        <v>12076819255.30491</v>
+        <v>16032184116.63131</v>
       </c>
       <c r="D316" t="n">
-        <v>591387700082.1104</v>
+        <v>587134340343.6245</v>
       </c>
       <c r="E316" t="n">
-        <v>1575.469020574503</v>
+        <v>1664.872981082615</v>
+      </c>
+      <c r="F316" t="n">
+        <v>-0.7192168078394734</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="B317" t="n">
-        <v>30285.50506407074</v>
+        <v>30693.54635606798</v>
       </c>
       <c r="C317" t="n">
-        <v>16032184116.63131</v>
+        <v>14411853963.11047</v>
       </c>
       <c r="D317" t="n">
-        <v>587134340343.6245</v>
+        <v>595427193050.2291</v>
       </c>
       <c r="E317" t="n">
-        <v>1664.872981082266</v>
+        <v>1766.469500957628</v>
+      </c>
+      <c r="F317" t="n">
+        <v>1.412428491535889</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="B318" t="n">
-        <v>30693.54635606798</v>
+        <v>30083.47724526382</v>
       </c>
       <c r="C318" t="n">
-        <v>14411853963.11047</v>
+        <v>8489428028.028098</v>
       </c>
       <c r="D318" t="n">
-        <v>595427193050.2291</v>
+        <v>584187696961.3756</v>
       </c>
       <c r="E318" t="n">
-        <v>1766.469500957296</v>
+        <v>1828.640442780616</v>
+      </c>
+      <c r="F318" t="n">
+        <v>-1.887635670664667</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="B319" t="n">
-        <v>30083.47724526382</v>
+        <v>30466.61045689353</v>
       </c>
       <c r="C319" t="n">
-        <v>8489428028.028098</v>
+        <v>12545425127.4463</v>
       </c>
       <c r="D319" t="n">
-        <v>584187696961.3756</v>
+        <v>591688337868.8445</v>
       </c>
       <c r="E319" t="n">
-        <v>1828.640442780293</v>
+        <v>1903.852097690243</v>
+      </c>
+      <c r="F319" t="n">
+        <v>1.283943661683229</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45107</v>
+        <v>45108</v>
       </c>
       <c r="B320" t="n">
-        <v>30466.61045689353</v>
+        <v>30480.78148194446</v>
       </c>
       <c r="C320" t="n">
-        <v>12545425127.4463</v>
+        <v>21422361050.8231</v>
       </c>
       <c r="D320" t="n">
-        <v>591688337868.8445</v>
+        <v>591722375245.7673</v>
       </c>
       <c r="E320" t="n">
-        <v>1903.852097689931</v>
+        <v>1970.190456486398</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.005752585397478249</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="B321" t="n">
-        <v>30480.78148194446</v>
+        <v>30583.61959969754</v>
       </c>
       <c r="C321" t="n">
-        <v>21422361050.8231</v>
+        <v>4210431244.432685</v>
       </c>
       <c r="D321" t="n">
-        <v>591722375245.7673</v>
+        <v>593625140902.5646</v>
       </c>
       <c r="E321" t="n">
-        <v>1970.190456486094</v>
+        <v>2027.009595353778</v>
+      </c>
+      <c r="F321" t="n">
+        <v>0.3215639185533581</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="B322" t="n">
-        <v>30583.61959969754</v>
+        <v>30571.88707287145</v>
       </c>
       <c r="C322" t="n">
-        <v>4210431244.432685</v>
+        <v>7236318143.905301</v>
       </c>
       <c r="D322" t="n">
-        <v>593625140902.5646</v>
+        <v>593627203721.8534</v>
       </c>
       <c r="E322" t="n">
-        <v>2027.009595353479</v>
+        <v>2080.801139146891</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0.0003474952704474177</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="B323" t="n">
-        <v>30571.88707287145</v>
+        <v>31134.71313350841</v>
       </c>
       <c r="C323" t="n">
-        <v>7236318143.905301</v>
+        <v>14755008156.77765</v>
       </c>
       <c r="D323" t="n">
-        <v>593627203721.8534</v>
+        <v>604507839820.0979</v>
       </c>
       <c r="E323" t="n">
-        <v>2080.801139146598</v>
+        <v>2149.211992469753</v>
+      </c>
+      <c r="F323" t="n">
+        <v>1.832907257286465</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B324" t="n">
-        <v>31134.71313350841</v>
+        <v>30775.6240223753</v>
       </c>
       <c r="C324" t="n">
-        <v>14755008156.77765</v>
+        <v>12403890725.26455</v>
       </c>
       <c r="D324" t="n">
-        <v>604507839820.0979</v>
+        <v>598449423994.1252</v>
       </c>
       <c r="E324" t="n">
-        <v>2149.211992469466</v>
+        <v>2195.942547794044</v>
+      </c>
+      <c r="F324" t="n">
+        <v>-1.002206328337385</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B325" t="n">
-        <v>30775.6240223753</v>
+        <v>30484.79377442352</v>
       </c>
       <c r="C325" t="n">
-        <v>12403890725.26455</v>
+        <v>10260132141.46154</v>
       </c>
       <c r="D325" t="n">
-        <v>598449423994.1252</v>
+        <v>592386606697.3153</v>
       </c>
       <c r="E325" t="n">
-        <v>2195.942547793761</v>
+        <v>2181.764132240679</v>
+      </c>
+      <c r="F325" t="n">
+        <v>-1.013087665177448</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="B326" t="n">
-        <v>30484.79377442352</v>
+        <v>29990.05515122025</v>
       </c>
       <c r="C326" t="n">
-        <v>10260132141.46154</v>
+        <v>21776707863.50335</v>
       </c>
       <c r="D326" t="n">
-        <v>592386606697.3153</v>
+        <v>583429029204.2451</v>
       </c>
       <c r="E326" t="n">
-        <v>2181.764132240391</v>
+        <v>2188.259235354441</v>
+      </c>
+      <c r="F326" t="n">
+        <v>-1.512116815572628</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="B327" t="n">
-        <v>29990.05515122025</v>
+        <v>30315.26540235163</v>
       </c>
       <c r="C327" t="n">
-        <v>21776707863.50335</v>
+        <v>13018507892.81461</v>
       </c>
       <c r="D327" t="n">
-        <v>583429029204.2451</v>
+        <v>588811434763.8912</v>
       </c>
       <c r="E327" t="n">
-        <v>2188.259235354153</v>
+        <v>2173.413448581806</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0.9225467520852293</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45115</v>
+        <v>45116</v>
       </c>
       <c r="B328" t="n">
-        <v>30315.26540235163</v>
+        <v>30264.19734525722</v>
       </c>
       <c r="C328" t="n">
-        <v>13018507892.81461</v>
+        <v>5608541981.756295</v>
       </c>
       <c r="D328" t="n">
-        <v>588811434763.8912</v>
+        <v>587678367157.9867</v>
       </c>
       <c r="E328" t="n">
-        <v>2173.413448581513</v>
+        <v>2154.858456386783</v>
+      </c>
+      <c r="F328" t="n">
+        <v>-0.1924330165834709</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45116</v>
+        <v>45117</v>
       </c>
       <c r="B329" t="n">
-        <v>30264.19734525722</v>
+        <v>30169.87065747925</v>
       </c>
       <c r="C329" t="n">
-        <v>5608541981.756295</v>
+        <v>7559670230.189486</v>
       </c>
       <c r="D329" t="n">
-        <v>587678367157.9867</v>
+        <v>585883986681.1711</v>
       </c>
       <c r="E329" t="n">
-        <v>2154.858456386486</v>
+        <v>2125.008371050597</v>
+      </c>
+      <c r="F329" t="n">
+        <v>-0.3053337636866216</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="B330" t="n">
-        <v>30169.87065747925</v>
+        <v>30394.28114637557</v>
       </c>
       <c r="C330" t="n">
-        <v>7559670230.189486</v>
+        <v>12835219756.96589</v>
       </c>
       <c r="D330" t="n">
-        <v>585883986681.1711</v>
+        <v>590311894648.7518</v>
       </c>
       <c r="E330" t="n">
-        <v>2125.008371050294</v>
+        <v>2062.901096180498</v>
+      </c>
+      <c r="F330" t="n">
+        <v>0.7557653167247658</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B331" t="n">
-        <v>30394.28114637557</v>
+        <v>30620.81424697801</v>
       </c>
       <c r="C331" t="n">
-        <v>12835219756.96589</v>
+        <v>11753418050.42166</v>
       </c>
       <c r="D331" t="n">
-        <v>590311894648.7518</v>
+        <v>594749192359.1351</v>
       </c>
       <c r="E331" t="n">
-        <v>2062.901096180183</v>
+        <v>1995.517293411977</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0.7516869896418976</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="B332" t="n">
-        <v>30620.81424697801</v>
+        <v>30407.41631435991</v>
       </c>
       <c r="C332" t="n">
-        <v>11753418050.42166</v>
+        <v>13072555444.26232</v>
       </c>
       <c r="D332" t="n">
-        <v>594749192359.1351</v>
+        <v>590629381260.7114</v>
       </c>
       <c r="E332" t="n">
-        <v>1995.517293411651</v>
+        <v>1907.62786354179</v>
+      </c>
+      <c r="F332" t="n">
+        <v>-0.6926972161293787</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B333" t="n">
-        <v>30407.41631435991</v>
+        <v>31446.0149710716</v>
       </c>
       <c r="C333" t="n">
-        <v>13072555444.26232</v>
+        <v>21254274345.70222</v>
       </c>
       <c r="D333" t="n">
-        <v>590629381260.7114</v>
+        <v>610725509598.8464</v>
       </c>
       <c r="E333" t="n">
-        <v>1907.627863541446</v>
+        <v>1828.011535848644</v>
+      </c>
+      <c r="F333" t="n">
+        <v>3.40249384398037</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="B334" t="n">
-        <v>31446.0149710716</v>
+        <v>30311.82780813052</v>
       </c>
       <c r="C334" t="n">
-        <v>21254274345.70222</v>
+        <v>21977151420.85325</v>
       </c>
       <c r="D334" t="n">
-        <v>610725509598.8464</v>
+        <v>588107447250.1327</v>
       </c>
       <c r="E334" t="n">
-        <v>1828.011535848283</v>
+        <v>1630.568943750755</v>
+      </c>
+      <c r="F334" t="n">
+        <v>-3.703474309362054</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45122</v>
+        <v>45123</v>
       </c>
       <c r="B335" t="n">
-        <v>30311.82780813052</v>
+        <v>30297.97140012553</v>
       </c>
       <c r="C335" t="n">
-        <v>21977151420.85325</v>
+        <v>6233916918.782722</v>
       </c>
       <c r="D335" t="n">
-        <v>588107447250.1327</v>
+        <v>588642134563.5204</v>
       </c>
       <c r="E335" t="n">
-        <v>1630.568943750348</v>
+        <v>1433.836454902249</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0.09091660306084215</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45123</v>
+        <v>45124</v>
       </c>
       <c r="B336" t="n">
-        <v>30297.97140012553</v>
+        <v>30237.3347851461</v>
       </c>
       <c r="C336" t="n">
-        <v>6233916918.782722</v>
+        <v>8356410453.563714</v>
       </c>
       <c r="D336" t="n">
-        <v>588642134563.5204</v>
+        <v>586391434733.7153</v>
       </c>
       <c r="E336" t="n">
-        <v>1433.836454901785</v>
+        <v>1270.315889480363</v>
+      </c>
+      <c r="F336" t="n">
+        <v>-0.3823545236825376</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45124</v>
+        <v>45125</v>
       </c>
       <c r="B337" t="n">
-        <v>30237.3347851461</v>
+        <v>30147.86007921152</v>
       </c>
       <c r="C337" t="n">
-        <v>8356410453.563714</v>
+        <v>10974383371.54657</v>
       </c>
       <c r="D337" t="n">
-        <v>586391434733.7153</v>
+        <v>585500720965.1113</v>
       </c>
       <c r="E337" t="n">
-        <v>1270.315889479838</v>
+        <v>1086.370202904193</v>
+      </c>
+      <c r="F337" t="n">
+        <v>-0.1518974725489453</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B338" t="n">
-        <v>30147.86007921152</v>
+        <v>29848.03227250528</v>
       </c>
       <c r="C338" t="n">
-        <v>10974383371.54657</v>
+        <v>13152758553.03082</v>
       </c>
       <c r="D338" t="n">
-        <v>585500720965.1113</v>
+        <v>579708613537.5165</v>
       </c>
       <c r="E338" t="n">
-        <v>1086.370202903577</v>
+        <v>822.6435779091997</v>
+      </c>
+      <c r="F338" t="n">
+        <v>-0.9892570957124369</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B339" t="n">
-        <v>29848.03227250528</v>
+        <v>29919.87483825516</v>
       </c>
       <c r="C339" t="n">
-        <v>13152758553.03082</v>
+        <v>8545620844.326587</v>
       </c>
       <c r="D339" t="n">
-        <v>579708613537.5165</v>
+        <v>581327322356.8716</v>
       </c>
       <c r="E339" t="n">
-        <v>822.643577908383</v>
+        <v>508.9252525421972</v>
+      </c>
+      <c r="F339" t="n">
+        <v>0.2792280089608079</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B340" t="n">
-        <v>29919.87483825516</v>
+        <v>29787.04153035569</v>
       </c>
       <c r="C340" t="n">
-        <v>8545620844.326587</v>
+        <v>11117456853.46451</v>
       </c>
       <c r="D340" t="n">
-        <v>581327322356.8716</v>
+        <v>579308712612.2581</v>
       </c>
       <c r="E340" t="n">
-        <v>508.9252525408731</v>
+        <v>358.9614736114392</v>
+      </c>
+      <c r="F340" t="n">
+        <v>-0.3472415052555022</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="B341" t="n">
-        <v>29787.04153035569</v>
+        <v>29914.68272835899</v>
       </c>
       <c r="C341" t="n">
-        <v>11117456853.46451</v>
+        <v>8492627980.9282</v>
       </c>
       <c r="D341" t="n">
-        <v>579308712612.2581</v>
+        <v>581397880391.4172</v>
       </c>
       <c r="E341" t="n">
-        <v>358.9614736095594</v>
+        <v>365.5136465624342</v>
+      </c>
+      <c r="F341" t="n">
+        <v>0.36063116843843</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45129</v>
+        <v>45130</v>
       </c>
       <c r="B342" t="n">
-        <v>29914.68272835899</v>
+        <v>29710.15593599177</v>
       </c>
       <c r="C342" t="n">
-        <v>8492627980.9282</v>
+        <v>6745541064.873876</v>
       </c>
       <c r="D342" t="n">
-        <v>581397880391.4172</v>
+        <v>577068525402.119</v>
       </c>
       <c r="E342" t="n">
-        <v>365.5136465605885</v>
+        <v>376.9565844424859</v>
+      </c>
+      <c r="F342" t="n">
+        <v>-0.7446458157679414</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45130</v>
+        <v>45131</v>
       </c>
       <c r="B343" t="n">
-        <v>29710.15593599177</v>
+        <v>30057.95671871459</v>
       </c>
       <c r="C343" t="n">
-        <v>6745541064.873876</v>
+        <v>7427606999.412798</v>
       </c>
       <c r="D343" t="n">
-        <v>577068525402.119</v>
+        <v>584296796267.4817</v>
       </c>
       <c r="E343" t="n">
-        <v>376.9565844406966</v>
+        <v>377.6030256206789</v>
+      </c>
+      <c r="F343" t="n">
+        <v>1.252584493379838</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="B344" t="n">
-        <v>30057.95671871459</v>
+        <v>29184.90191305769</v>
       </c>
       <c r="C344" t="n">
-        <v>7427606999.412798</v>
+        <v>15195244950.83804</v>
       </c>
       <c r="D344" t="n">
-        <v>584296796267.4817</v>
+        <v>567051778655.8361</v>
       </c>
       <c r="E344" t="n">
-        <v>377.6030256188936</v>
+        <v>430.9781645932991</v>
+      </c>
+      <c r="F344" t="n">
+        <v>-2.9514140282486</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B345" t="n">
-        <v>29184.90191305769</v>
+        <v>29222.97463038353</v>
       </c>
       <c r="C345" t="n">
-        <v>15195244950.83804</v>
+        <v>7929844775.363448</v>
       </c>
       <c r="D345" t="n">
-        <v>567051778655.8361</v>
+        <v>568019115128.7598</v>
       </c>
       <c r="E345" t="n">
-        <v>430.9781645917368</v>
+        <v>472.5330519806469</v>
+      </c>
+      <c r="F345" t="n">
+        <v>0.1705905014911968</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B346" t="n">
-        <v>29222.97463038353</v>
+        <v>29363.67290797862</v>
       </c>
       <c r="C346" t="n">
-        <v>7929844775.363448</v>
+        <v>13088677750.42505</v>
       </c>
       <c r="D346" t="n">
-        <v>568019115128.7598</v>
+        <v>570531781624.6747</v>
       </c>
       <c r="E346" t="n">
-        <v>472.5330519792237</v>
+        <v>500.0110865592945</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0.4423559751761674</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B347" t="n">
-        <v>29363.67290797862</v>
+        <v>29200.24400129131</v>
       </c>
       <c r="C347" t="n">
-        <v>13088677750.42505</v>
+        <v>9047649539.81237</v>
       </c>
       <c r="D347" t="n">
-        <v>570531781624.6747</v>
+        <v>567708714251.7643</v>
       </c>
       <c r="E347" t="n">
-        <v>500.0110865579505</v>
+        <v>525.8898291160929</v>
+      </c>
+      <c r="F347" t="n">
+        <v>-0.4948133414884093</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45135</v>
+        <v>45136</v>
       </c>
       <c r="B348" t="n">
-        <v>29200.24400129131</v>
+        <v>29314.09738709836</v>
       </c>
       <c r="C348" t="n">
-        <v>9047649539.81237</v>
+        <v>7682754827.054111</v>
       </c>
       <c r="D348" t="n">
-        <v>567708714251.7643</v>
+        <v>569952119667.3986</v>
       </c>
       <c r="E348" t="n">
-        <v>525.8898291148164</v>
+        <v>549.0013600246438</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0.3951683952202689</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45136</v>
+        <v>45137</v>
       </c>
       <c r="B349" t="n">
-        <v>29314.09738709836</v>
+        <v>29356.74774591667</v>
       </c>
       <c r="C349" t="n">
-        <v>7682754827.054111</v>
+        <v>4882536540.911603</v>
       </c>
       <c r="D349" t="n">
-        <v>569952119667.3986</v>
+        <v>570804910032.5747</v>
       </c>
       <c r="E349" t="n">
-        <v>549.0013600234217</v>
+        <v>564.398878775574</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0.1496249133477789</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45137</v>
+        <v>45138</v>
       </c>
       <c r="B350" t="n">
-        <v>29356.74774591667</v>
+        <v>29277.75581027272</v>
       </c>
       <c r="C350" t="n">
-        <v>4882536540.911603</v>
+        <v>7872881636.625643</v>
       </c>
       <c r="D350" t="n">
-        <v>570804910032.5747</v>
+        <v>569135711632.8535</v>
       </c>
       <c r="E350" t="n">
-        <v>564.3988787743863</v>
+        <v>580.189209669295</v>
+      </c>
+      <c r="F350" t="n">
+        <v>-0.2924288790063012</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="B351" t="n">
-        <v>29277.75581027272</v>
+        <v>29233.13636558044</v>
       </c>
       <c r="C351" t="n">
-        <v>7872881636.625643</v>
+        <v>6641808341.386258</v>
       </c>
       <c r="D351" t="n">
-        <v>569135711632.8535</v>
+        <v>568333703606.0996</v>
       </c>
       <c r="E351" t="n">
-        <v>580.1892096681406</v>
+        <v>591.8051491248556</v>
+      </c>
+      <c r="F351" t="n">
+        <v>-0.140916834133098</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B352" t="n">
-        <v>29233.13636558044</v>
+        <v>29537.10974692743</v>
       </c>
       <c r="C352" t="n">
-        <v>6641808341.386258</v>
+        <v>15289922840.87383</v>
       </c>
       <c r="D352" t="n">
-        <v>568333703606.0996</v>
+        <v>572408929757.9709</v>
       </c>
       <c r="E352" t="n">
-        <v>591.8051491237251</v>
+        <v>589.4063583372563</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.7170481226106862</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B353" t="n">
-        <v>29537.10974692743</v>
+        <v>29146.63627084363</v>
       </c>
       <c r="C353" t="n">
-        <v>15289922840.87383</v>
+        <v>19266318894.08652</v>
       </c>
       <c r="D353" t="n">
-        <v>572408929757.9709</v>
+        <v>567074709353.651</v>
       </c>
       <c r="E353" t="n">
-        <v>589.4063583361219</v>
+        <v>568.5356778689944</v>
+      </c>
+      <c r="F353" t="n">
+        <v>-0.9318897953907501</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B354" t="n">
-        <v>29146.63627084363</v>
+        <v>29176.15059658541</v>
       </c>
       <c r="C354" t="n">
-        <v>19266318894.08652</v>
+        <v>12539132810.40034</v>
       </c>
       <c r="D354" t="n">
-        <v>567074709353.651</v>
+        <v>567940644790.4882</v>
       </c>
       <c r="E354" t="n">
-        <v>568.5356778678201</v>
+        <v>561.579439885507</v>
+      </c>
+      <c r="F354" t="n">
+        <v>0.1527021788406246</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45142</v>
+        <v>45143</v>
       </c>
       <c r="B355" t="n">
-        <v>29176.15059658541</v>
+        <v>29087.93808600763</v>
       </c>
       <c r="C355" t="n">
-        <v>12539132810.40034</v>
+        <v>12112869085.65588</v>
       </c>
       <c r="D355" t="n">
-        <v>567940644790.4882</v>
+        <v>565073127339.627</v>
       </c>
       <c r="E355" t="n">
-        <v>561.5794398843198</v>
+        <v>567.4087102276284</v>
+      </c>
+      <c r="F355" t="n">
+        <v>-0.5048973827043168</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45143</v>
+        <v>45144</v>
       </c>
       <c r="B356" t="n">
-        <v>29087.93808600763</v>
+        <v>29046.8004570232</v>
       </c>
       <c r="C356" t="n">
-        <v>12112869085.65588</v>
+        <v>5335308729.48437</v>
       </c>
       <c r="D356" t="n">
-        <v>565073127339.627</v>
+        <v>564970113457.8998</v>
       </c>
       <c r="E356" t="n">
-        <v>567.4087102264549</v>
+        <v>584.1998715959122</v>
+      </c>
+      <c r="F356" t="n">
+        <v>-0.01823018592517212</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45144</v>
+        <v>45145</v>
       </c>
       <c r="B357" t="n">
-        <v>29046.8004570232</v>
+        <v>29044.20437557756</v>
       </c>
       <c r="C357" t="n">
-        <v>5335308729.48437</v>
+        <v>5360283576.269965</v>
       </c>
       <c r="D357" t="n">
-        <v>564970113457.8998</v>
+        <v>564947914083.0184</v>
       </c>
       <c r="E357" t="n">
-        <v>584.1998715947732</v>
+        <v>591.5836685162128</v>
+      </c>
+      <c r="F357" t="n">
+        <v>-0.003929300745741937</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B358" t="n">
-        <v>29044.20437557756</v>
+        <v>29178.14775187308</v>
       </c>
       <c r="C358" t="n">
-        <v>5360283576.269965</v>
+        <v>13252185122.11245</v>
       </c>
       <c r="D358" t="n">
-        <v>564947914083.0184</v>
+        <v>567529179865.8152</v>
       </c>
       <c r="E358" t="n">
-        <v>591.5836685150891</v>
+        <v>592.7420680336065</v>
+      </c>
+      <c r="F358" t="n">
+        <v>0.4569033212533435</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B359" t="n">
-        <v>29178.14775187308</v>
+        <v>29779.56167125089</v>
       </c>
       <c r="C359" t="n">
-        <v>13252185122.11245</v>
+        <v>14603570418.91888</v>
       </c>
       <c r="D359" t="n">
-        <v>567529179865.8152</v>
+        <v>579214283623.8071</v>
       </c>
       <c r="E359" t="n">
-        <v>592.7420680324859</v>
+        <v>586.8125886919412</v>
+      </c>
+      <c r="F359" t="n">
+        <v>2.058943253059642</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B360" t="n">
-        <v>29779.56167125089</v>
+        <v>29585.48807737921</v>
       </c>
       <c r="C360" t="n">
-        <v>14603570418.91888</v>
+        <v>14633310097.49142</v>
       </c>
       <c r="D360" t="n">
-        <v>579214283623.8071</v>
+        <v>575535414817.4033</v>
       </c>
       <c r="E360" t="n">
-        <v>586.8125886908095</v>
+        <v>572.6211839228374</v>
+      </c>
+      <c r="F360" t="n">
+        <v>-0.635148149901843</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B361" t="n">
-        <v>29585.48807737921</v>
+        <v>29423.81891597763</v>
       </c>
       <c r="C361" t="n">
-        <v>14633310097.49142</v>
+        <v>8106253519.025447</v>
       </c>
       <c r="D361" t="n">
-        <v>575535414817.4033</v>
+        <v>572414205818.4142</v>
       </c>
       <c r="E361" t="n">
-        <v>572.621183921678</v>
+        <v>545.9913019241648</v>
+      </c>
+      <c r="F361" t="n">
+        <v>-0.5423139773213403</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45149</v>
+        <v>45150</v>
       </c>
       <c r="B362" t="n">
-        <v>29423.81891597763</v>
+        <v>29396.8479714205</v>
       </c>
       <c r="C362" t="n">
-        <v>8106253519.025447</v>
+        <v>4651950357.636653</v>
       </c>
       <c r="D362" t="n">
-        <v>572414205818.4142</v>
+        <v>571976559045.8302</v>
       </c>
       <c r="E362" t="n">
-        <v>545.9913019229498</v>
+        <v>527.9861289378066</v>
+      </c>
+      <c r="F362" t="n">
+        <v>-0.07645630875954268</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45150</v>
+        <v>45151</v>
       </c>
       <c r="B363" t="n">
-        <v>29396.8479714205</v>
+        <v>29412.1422745841</v>
       </c>
       <c r="C363" t="n">
-        <v>4651950357.636653</v>
+        <v>3994297895.288944</v>
       </c>
       <c r="D363" t="n">
-        <v>571976559045.8302</v>
+        <v>572257798803.9086</v>
       </c>
       <c r="E363" t="n">
-        <v>527.9861289365509</v>
+        <v>398.5233466180436</v>
+      </c>
+      <c r="F363" t="n">
+        <v>0.04916980488631761</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45151</v>
+        <v>45152</v>
       </c>
       <c r="B364" t="n">
-        <v>29412.1422745841</v>
+        <v>29284.96971374381</v>
       </c>
       <c r="C364" t="n">
-        <v>3994297895.288944</v>
+        <v>4755220448.634491</v>
       </c>
       <c r="D364" t="n">
-        <v>572257798803.9086</v>
+        <v>569687130446.7833</v>
       </c>
       <c r="E364" t="n">
-        <v>398.5233466163819</v>
+        <v>373.2455775179008</v>
+      </c>
+      <c r="F364" t="n">
+        <v>-0.4492150849666476</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45152</v>
+        <v>45153</v>
       </c>
       <c r="B365" t="n">
-        <v>29284.96971374381</v>
+        <v>29400.58680419105</v>
       </c>
       <c r="C365" t="n">
-        <v>4755220448.634491</v>
+        <v>12408355477.11134</v>
       </c>
       <c r="D365" t="n">
-        <v>569687130446.7833</v>
+        <v>572242735188.2397</v>
       </c>
       <c r="E365" t="n">
-        <v>373.2455775161276</v>
+        <v>342.242197530986</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0.4485979417249819</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="B366" t="n">
-        <v>29400.58680419105</v>
+        <v>29170.49039706061</v>
       </c>
       <c r="C366" t="n">
-        <v>12408355477.11134</v>
+        <v>11523395157.99864</v>
       </c>
       <c r="D366" t="n">
-        <v>572242735188.2397</v>
+        <v>567498309102.7323</v>
       </c>
       <c r="E366" t="n">
-        <v>342.2421975290531</v>
+        <v>314.7142317360813</v>
+      </c>
+      <c r="F366" t="n">
+        <v>-0.8290932839796983</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45153.45297453704</v>
+        <v>45154.45311342592</v>
       </c>
       <c r="B367" t="n">
-        <v>29371.6598006107</v>
+        <v>29163.57784121027</v>
       </c>
       <c r="C367" t="n">
-        <v>11455690556.76456</v>
+        <v>12196283602.62553</v>
       </c>
       <c r="D367" t="n">
-        <v>571623627385.0809</v>
+        <v>567535507740.7275</v>
       </c>
       <c r="E367" t="n">
-        <v>310.8862681338184</v>
+        <v>288.6361512588791</v>
+      </c>
+      <c r="F367" t="n">
+        <v>0.006554845608985893</v>
       </c>
     </row>
   </sheetData>
